--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2735857.917488332</v>
+        <v>2815543.854815776</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7927476.968064734</v>
+        <v>6436744.570497635</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1144842.243365909</v>
+        <v>352306.8458099726</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6520169.303735323</v>
+        <v>6778300.52465394</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>346.7507753657917</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
+        <v>16.8201079258493</v>
+      </c>
+      <c r="G2" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="G2" t="n">
-        <v>4.641001266096112</v>
-      </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +712,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>314.8469013228972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>62.88331038290528</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>115.7281862028015</v>
@@ -747,7 +749,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
         <v>105.9202115588047</v>
@@ -756,7 +758,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -792,16 +794,16 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
-        <v>211.1008365810345</v>
+        <v>26.94038839068334</v>
       </c>
       <c r="X3" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>157.8079400398083</v>
@@ -817,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>23.90092288974135</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>156.9317213377652</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
@@ -880,10 +882,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +898,7 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>346.3314847579218</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>0.4192906078700389</v>
@@ -908,10 +910,10 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>390.1527797502169</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>390.1527797502169</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>41.28263889949475</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.42375195697269</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
         <v>132.6551205385437</v>
@@ -981,19 +983,19 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F6" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
-        <v>105.9202115588047</v>
+        <v>90.64793374597417</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1032,7 +1034,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
         <v>211.1008365810345</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -1060,16 +1062,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>18.17115629119808</v>
+        <v>17.16004495925772</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -1105,13 +1107,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1527797502169</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
         <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>10.19681332827224</v>
@@ -1145,13 +1147,13 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>311.9216402354285</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>317.115508304458</v>
       </c>
       <c r="Y8" t="n">
-        <v>390.1527797502169</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C9" t="n">
         <v>132.6551205385437</v>
@@ -1218,7 +1220,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F9" t="n">
         <v>107.8702810193205</v>
@@ -1260,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T9" t="n">
         <v>157.7484451748619</v>
@@ -1278,7 +1280,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.98654374611543</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="10">
@@ -1291,7 +1293,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>106.1054826037157</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
@@ -1348,7 +1350,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>227.4843999725526</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,10 +1372,10 @@
         <v>341.4355598753965</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>341.3399367874144</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>335.7358826154219</v>
       </c>
       <c r="E11" t="n">
         <v>345.5134053358241</v>
@@ -1388,7 +1390,7 @@
         <v>243.1160044061111</v>
       </c>
       <c r="I11" t="n">
-        <v>20.80483706364944</v>
+        <v>20.80483706364946</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>69.24485646139202</v>
+        <v>69.24485646139203</v>
       </c>
       <c r="T11" t="n">
-        <v>155.3010112201616</v>
+        <v>155.3010112201617</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>189.8064788306369</v>
       </c>
       <c r="V11" t="n">
-        <v>227.2422041992623</v>
+        <v>281.655771124436</v>
       </c>
       <c r="W11" t="n">
         <v>315.239289863735</v>
@@ -1531,22 +1533,22 @@
         <v>104.6990307214525</v>
       </c>
       <c r="D13" t="n">
-        <v>93.21629023787095</v>
+        <v>93.21629023787096</v>
       </c>
       <c r="E13" t="n">
-        <v>94.61829898791547</v>
+        <v>94.61829898791561</v>
       </c>
       <c r="F13" t="n">
-        <v>98.30140663806652</v>
+        <v>98.30140663806654</v>
       </c>
       <c r="G13" t="n">
         <v>100.8944791712639</v>
       </c>
       <c r="H13" t="n">
-        <v>83.42797265014978</v>
+        <v>83.4279726501498</v>
       </c>
       <c r="I13" t="n">
-        <v>50.49917744426898</v>
+        <v>50.49917744426899</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>19.73658314890622</v>
+        <v>19.73658314890623</v>
       </c>
       <c r="S13" t="n">
         <v>119.8444424464407</v>
@@ -1585,7 +1587,7 @@
         <v>215.286757986889</v>
       </c>
       <c r="V13" t="n">
-        <v>206.4634796174252</v>
+        <v>206.4634796174248</v>
       </c>
       <c r="W13" t="n">
         <v>211.5955598537662</v>
@@ -1607,25 +1609,25 @@
         <v>341.4355598753965</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>341.3399367874144</v>
       </c>
       <c r="D14" t="n">
         <v>335.7358826154219</v>
       </c>
       <c r="E14" t="n">
-        <v>105.51507023824</v>
+        <v>345.5134053358241</v>
       </c>
       <c r="F14" t="n">
         <v>352.1366999334012</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>339.957593273648</v>
       </c>
       <c r="H14" t="n">
         <v>243.1160044061111</v>
       </c>
       <c r="I14" t="n">
-        <v>20.80483706364944</v>
+        <v>20.80483706364946</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>69.24485646139202</v>
+        <v>69.24485646139203</v>
       </c>
       <c r="T14" t="n">
-        <v>155.3010112201616</v>
+        <v>155.3010112201617</v>
       </c>
       <c r="U14" t="n">
         <v>189.8064788306369</v>
@@ -1667,7 +1669,7 @@
         <v>281.655771124436</v>
       </c>
       <c r="W14" t="n">
-        <v>315.239289863735</v>
+        <v>315.2392898637351</v>
       </c>
       <c r="X14" t="n">
         <v>331.9535558602889</v>
@@ -1768,22 +1770,22 @@
         <v>104.6990307214525</v>
       </c>
       <c r="D16" t="n">
-        <v>93.21629023787095</v>
+        <v>93.21629023787179</v>
       </c>
       <c r="E16" t="n">
-        <v>94.61829898791559</v>
+        <v>94.61829898791561</v>
       </c>
       <c r="F16" t="n">
-        <v>98.30140663806652</v>
+        <v>98.30140663806654</v>
       </c>
       <c r="G16" t="n">
         <v>100.8944791712639</v>
       </c>
       <c r="H16" t="n">
-        <v>83.42797265014978</v>
+        <v>83.4279726501498</v>
       </c>
       <c r="I16" t="n">
-        <v>50.49917744426898</v>
+        <v>50.49917744426899</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>19.73658314890622</v>
+        <v>19.73658314890623</v>
       </c>
       <c r="S16" t="n">
         <v>119.8444424464407</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.24485646139203</v>
+        <v>69.24485646139223</v>
       </c>
       <c r="T17" t="n">
         <v>155.3010112201617</v>
@@ -1904,7 +1906,7 @@
         <v>281.655771124436</v>
       </c>
       <c r="W17" t="n">
-        <v>315.2392898637351</v>
+        <v>315.239289863735</v>
       </c>
       <c r="X17" t="n">
         <v>331.9535558602889</v>
@@ -2017,10 +2019,10 @@
         <v>100.8944791712639</v>
       </c>
       <c r="H19" t="n">
-        <v>83.42797265014927</v>
+        <v>83.4279726501498</v>
       </c>
       <c r="I19" t="n">
-        <v>50.49917744426899</v>
+        <v>50.49917744426846</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>19.73658314890623</v>
       </c>
       <c r="S22" t="n">
-        <v>119.8444424464407</v>
+        <v>119.8444424464405</v>
       </c>
       <c r="T22" t="n">
         <v>172.4698436406168</v>
@@ -2330,13 +2332,13 @@
         <v>352.1366999334012</v>
       </c>
       <c r="G23" t="n">
-        <v>339.9575932736482</v>
+        <v>339.957593273648</v>
       </c>
       <c r="H23" t="n">
         <v>243.1160044061111</v>
       </c>
       <c r="I23" t="n">
-        <v>20.80483706364946</v>
+        <v>20.80483706364944</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.24485646139203</v>
+        <v>69.24485646139202</v>
       </c>
       <c r="T23" t="n">
-        <v>155.3010112201617</v>
+        <v>155.3010112201616</v>
       </c>
       <c r="U23" t="n">
         <v>189.8064788306369</v>
       </c>
       <c r="V23" t="n">
-        <v>281.655771124436</v>
+        <v>281.6557711244359</v>
       </c>
       <c r="W23" t="n">
         <v>315.239289863735</v>
@@ -2479,22 +2481,22 @@
         <v>104.6990307214525</v>
       </c>
       <c r="D25" t="n">
-        <v>93.21629023787096</v>
+        <v>93.21629023787095</v>
       </c>
       <c r="E25" t="n">
-        <v>94.61829898791561</v>
+        <v>94.61829898791559</v>
       </c>
       <c r="F25" t="n">
-        <v>98.30140663806654</v>
+        <v>98.30140663806652</v>
       </c>
       <c r="G25" t="n">
         <v>100.8944791712639</v>
       </c>
       <c r="H25" t="n">
-        <v>83.4279726501498</v>
+        <v>83.42797265014978</v>
       </c>
       <c r="I25" t="n">
-        <v>50.49917744426899</v>
+        <v>50.49917744426898</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>19.73658314890623</v>
+        <v>19.73658314890622</v>
       </c>
       <c r="S25" t="n">
         <v>119.8444424464407</v>
@@ -2536,7 +2538,7 @@
         <v>206.4634796174252</v>
       </c>
       <c r="W25" t="n">
-        <v>211.5955598537659</v>
+        <v>211.5955598537662</v>
       </c>
       <c r="X25" t="n">
         <v>171.2770155264653</v>
@@ -2573,7 +2575,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I26" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C28" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>136.078945437374</v>
@@ -2731,7 +2733,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>66.44139541920863</v>
       </c>
       <c r="T28" t="n">
         <v>207.6543099067269</v>
@@ -2770,16 +2772,16 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V28" t="n">
-        <v>153.9442248614343</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X28" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="29">
@@ -2998,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>147.9838222131336</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>67.2064166806276</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3034,7 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D32" t="n">
-        <v>370.9203488815327</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E32" t="n">
         <v>380.6978716019343</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>139.8834969875627</v>
@@ -3235,16 +3237,16 @@
         <v>54.92104941501636</v>
       </c>
       <c r="S34" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>107.7276828060596</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y34" t="n">
-        <v>192.9893998987849</v>
+        <v>119.9505888846268</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>341.4355598753965</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C35" t="n">
-        <v>341.3399367874144</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D35" t="n">
-        <v>335.7358826154219</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E35" t="n">
-        <v>345.5134053358241</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F35" t="n">
-        <v>352.1366999334012</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G35" t="n">
-        <v>339.957593273648</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H35" t="n">
-        <v>243.1160044061111</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I35" t="n">
-        <v>20.80483706364944</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>69.24485646139202</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T35" t="n">
-        <v>155.3010112201616</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U35" t="n">
-        <v>189.8064788306369</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V35" t="n">
-        <v>281.655771124436</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W35" t="n">
-        <v>315.239289863735</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X35" t="n">
-        <v>331.9535558602889</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y35" t="n">
-        <v>332.2438983289427</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>121.1393013376558</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C37" t="n">
-        <v>104.6990307214525</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D37" t="n">
-        <v>93.21629023787095</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E37" t="n">
-        <v>94.61829898791559</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F37" t="n">
-        <v>98.30140663806652</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G37" t="n">
-        <v>100.8944791712639</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H37" t="n">
-        <v>83.42797265014978</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>50.49917744426898</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>19.73658314890622</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>119.8444424464407</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>172.4698436406168</v>
+        <v>189.5100537300104</v>
       </c>
       <c r="U37" t="n">
-        <v>215.286757986889</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>206.4634796174252</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>211.5955598537662</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X37" t="n">
-        <v>171.2770155264653</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y37" t="n">
-        <v>157.8049336326748</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>341.4355598753965</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C38" t="n">
-        <v>341.3399367874144</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D38" t="n">
-        <v>335.7358826154219</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E38" t="n">
-        <v>345.5134053358241</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F38" t="n">
-        <v>352.1366999334012</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G38" t="n">
-        <v>339.957593273648</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H38" t="n">
-        <v>243.1160044061111</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I38" t="n">
-        <v>20.80483706364944</v>
+        <v>55.98930332975954</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>69.24485646139202</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T38" t="n">
-        <v>155.3010112201616</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U38" t="n">
-        <v>189.8064788306369</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V38" t="n">
-        <v>281.655771124436</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W38" t="n">
-        <v>315.239289863735</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X38" t="n">
-        <v>331.9535558602889</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y38" t="n">
-        <v>332.2438983289427</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>121.1393013376558</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>104.6990307214525</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>93.21629023787095</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>94.61829898791559</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F40" t="n">
-        <v>98.30140663806652</v>
+        <v>103.2574653935842</v>
       </c>
       <c r="G40" t="n">
-        <v>100.8944791712639</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.42797265014978</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I40" t="n">
-        <v>50.49917744426898</v>
+        <v>85.68364371037907</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.73658314890622</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>119.8444424464407</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T40" t="n">
-        <v>172.4698436406168</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U40" t="n">
-        <v>215.286757986889</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V40" t="n">
-        <v>206.4634796174252</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W40" t="n">
-        <v>211.5955598537662</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X40" t="n">
-        <v>171.2770155264653</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y40" t="n">
-        <v>157.8049336326748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>370.9345016017344</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C41" t="n">
-        <v>370.8388785137524</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E41" t="n">
-        <v>375.0123470621621</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F41" t="n">
-        <v>381.6356416597392</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G41" t="n">
-        <v>369.456534999986</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>55.98930332975954</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>98.74379818773001</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T41" t="n">
-        <v>39.63364456472758</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W41" t="n">
-        <v>344.738231590073</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X41" t="n">
-        <v>361.4524975866269</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y41" t="n">
-        <v>361.7428400552807</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>150.6382430639938</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D43" t="n">
-        <v>122.7152319642089</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>124.1172407142536</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>127.8003483644045</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>15.8778262188698</v>
       </c>
       <c r="H43" t="n">
-        <v>112.9269143764878</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I43" t="n">
-        <v>79.99811917060697</v>
+        <v>85.68364371037907</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>49.23552487524421</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>149.3433841727787</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>201.9687853669548</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U43" t="n">
-        <v>244.785699713227</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>235.9624213437631</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X43" t="n">
-        <v>3.183482269021324</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y43" t="n">
-        <v>187.3038753590128</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>370.9345016017344</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C44" t="n">
-        <v>370.8388785137524</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E44" t="n">
-        <v>29.4674664844198</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F44" t="n">
-        <v>381.6356416597392</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H44" t="n">
-        <v>272.6149461324491</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I44" t="n">
-        <v>50.30377878998743</v>
+        <v>55.98930332976064</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3054205569749</v>
+        <v>224.990945096747</v>
       </c>
       <c r="V44" t="n">
-        <v>311.154712850774</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W44" t="n">
-        <v>344.738231590073</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X44" t="n">
-        <v>361.4524975866269</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y44" t="n">
-        <v>361.7428400552807</v>
+        <v>367.4283645950528</v>
       </c>
     </row>
     <row r="45">
@@ -4141,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>124.1172407142536</v>
+        <v>8.9229166093643</v>
       </c>
       <c r="F46" t="n">
-        <v>127.8003483644045</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H46" t="n">
-        <v>112.9269143764878</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I46" t="n">
-        <v>79.99811917060697</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>49.23552487524421</v>
+        <v>54.92104941501631</v>
       </c>
       <c r="S46" t="n">
-        <v>149.3433841727787</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T46" t="n">
-        <v>201.9687853669548</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>244.785699713227</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V46" t="n">
-        <v>235.9624213437631</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W46" t="n">
-        <v>241.0945015801042</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X46" t="n">
-        <v>35.44245571711982</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y46" t="n">
-        <v>187.3038753590128</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>844.0616033769616</v>
+        <v>1196.942784117742</v>
       </c>
       <c r="C2" t="n">
-        <v>837.9774167306357</v>
+        <v>802.8490671983307</v>
       </c>
       <c r="D2" t="n">
-        <v>837.5538908641003</v>
+        <v>452.595758748036</v>
       </c>
       <c r="E2" t="n">
-        <v>827.254079421401</v>
+        <v>442.2959473053368</v>
       </c>
       <c r="F2" t="n">
-        <v>433.1603625019899</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="G2" t="n">
-        <v>428.4724824352262</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H2" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I2" t="n">
         <v>31.21222238001735</v>
@@ -4331,22 +4333,22 @@
         <v>285.3976938477716</v>
       </c>
       <c r="K2" t="n">
-        <v>285.3976938477716</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L2" t="n">
-        <v>285.3976938477716</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="M2" t="n">
-        <v>361.3007174531585</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="N2" t="n">
-        <v>747.5519694058733</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="O2" t="n">
-        <v>1133.803221358588</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="P2" t="n">
-        <v>1520.054473311303</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q2" t="n">
         <v>1520.054473311303</v>
@@ -4358,22 +4360,22 @@
         <v>1425.330043794968</v>
       </c>
       <c r="T2" t="n">
-        <v>1425.330043794968</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U2" t="n">
-        <v>1168.269552054478</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="V2" t="n">
-        <v>1168.269552054478</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="W2" t="n">
-        <v>1168.269552054478</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="X2" t="n">
-        <v>1168.269552054478</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="Y2" t="n">
-        <v>850.242379001047</v>
+        <v>1203.123559741827</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>530.60660853427</v>
+        <v>555.2994016357376</v>
       </c>
       <c r="C3" t="n">
-        <v>467.088113198002</v>
+        <v>555.2994016357376</v>
       </c>
       <c r="D3" t="n">
-        <v>350.1909554173944</v>
+        <v>438.40224385513</v>
       </c>
       <c r="E3" t="n">
-        <v>229.6981394097224</v>
+        <v>317.909427847458</v>
       </c>
       <c r="F3" t="n">
-        <v>229.6981394097224</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="G3" t="n">
-        <v>122.7080267240611</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H3" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I3" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J3" t="n">
-        <v>224.0250799426506</v>
+        <v>52.01289845874021</v>
       </c>
       <c r="K3" t="n">
-        <v>610.2763318953653</v>
+        <v>52.01289845874021</v>
       </c>
       <c r="L3" t="n">
-        <v>610.2763318953653</v>
+        <v>52.01289845874021</v>
       </c>
       <c r="M3" t="n">
-        <v>794.9558830015396</v>
+        <v>52.01289845874021</v>
       </c>
       <c r="N3" t="n">
-        <v>794.9558830015396</v>
+        <v>438.2641504114549</v>
       </c>
       <c r="O3" t="n">
-        <v>794.9558830015396</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="P3" t="n">
-        <v>1181.207134954254</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="Q3" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R3" t="n">
         <v>1560.611119000868</v>
@@ -4440,19 +4442,19 @@
         <v>1293.279245302185</v>
       </c>
       <c r="U3" t="n">
-        <v>1293.279245302185</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V3" t="n">
-        <v>1079.567718295218</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W3" t="n">
-        <v>866.3345500315471</v>
+        <v>855.0043939074942</v>
       </c>
       <c r="X3" t="n">
-        <v>690.00856817044</v>
+        <v>855.0043939074942</v>
       </c>
       <c r="Y3" t="n">
-        <v>530.60660853427</v>
+        <v>695.6024342713242</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>356.9795036946408</v>
+        <v>214.8492134103814</v>
       </c>
       <c r="C4" t="n">
-        <v>356.9795036946408</v>
+        <v>190.7068670571073</v>
       </c>
       <c r="D4" t="n">
-        <v>356.9795036946408</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E4" t="n">
-        <v>356.9795036946408</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F4" t="n">
-        <v>198.4626134544739</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G4" t="n">
         <v>31.21222238001735</v>
@@ -4486,7 +4488,7 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J4" t="n">
-        <v>45.29477178522787</v>
+        <v>45.29477178522802</v>
       </c>
       <c r="K4" t="n">
         <v>199.8470995074661</v>
@@ -4510,28 +4512,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R4" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S4" t="n">
-        <v>1374.219350880778</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T4" t="n">
-        <v>1134.67061185748</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.67061185748</v>
+        <v>1006.148485102302</v>
       </c>
       <c r="V4" t="n">
-        <v>860.7848667970018</v>
+        <v>732.2627400418237</v>
       </c>
       <c r="W4" t="n">
-        <v>581.7152023058761</v>
+        <v>453.193075550698</v>
       </c>
       <c r="X4" t="n">
-        <v>581.7152023058761</v>
+        <v>214.8492134103814</v>
       </c>
       <c r="Y4" t="n">
-        <v>356.9795036946408</v>
+        <v>214.8492134103814</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>802.8490671983308</v>
+        <v>794.8845716573517</v>
       </c>
       <c r="C5" t="n">
-        <v>453.0192846145714</v>
+        <v>384.7599809706218</v>
       </c>
       <c r="D5" t="n">
-        <v>452.595758748036</v>
+        <v>384.3364551040864</v>
       </c>
       <c r="E5" t="n">
-        <v>442.2959473053368</v>
+        <v>374.0366436613871</v>
       </c>
       <c r="F5" t="n">
-        <v>425.3059392994284</v>
+        <v>357.0466356554787</v>
       </c>
       <c r="G5" t="n">
-        <v>31.21222238001735</v>
+        <v>352.358755588715</v>
       </c>
       <c r="H5" t="n">
-        <v>31.21222238001735</v>
+        <v>41.45025821643299</v>
       </c>
       <c r="I5" t="n">
-        <v>31.21222238001735</v>
+        <v>41.45025821643299</v>
       </c>
       <c r="J5" t="n">
-        <v>285.3976938477716</v>
+        <v>41.45025821643299</v>
       </c>
       <c r="K5" t="n">
-        <v>671.6489458004863</v>
+        <v>554.3972036447913</v>
       </c>
       <c r="L5" t="n">
-        <v>747.5519694058733</v>
+        <v>1067.34414907315</v>
       </c>
       <c r="M5" t="n">
-        <v>747.5519694058733</v>
+        <v>1580.291094501508</v>
       </c>
       <c r="N5" t="n">
-        <v>1133.803221358588</v>
+        <v>1580.291094501508</v>
       </c>
       <c r="O5" t="n">
-        <v>1520.054473311303</v>
+        <v>1580.291094501508</v>
       </c>
       <c r="P5" t="n">
-        <v>1520.054473311303</v>
+        <v>1751.351904026358</v>
       </c>
       <c r="Q5" t="n">
-        <v>1520.054473311303</v>
+        <v>2072.51291082165</v>
       </c>
       <c r="R5" t="n">
-        <v>1560.611119000868</v>
+        <v>2072.51291082165</v>
       </c>
       <c r="S5" t="n">
-        <v>1425.330043794968</v>
+        <v>2072.51291082165</v>
       </c>
       <c r="T5" t="n">
-        <v>1203.123559741827</v>
+        <v>1850.306426768509</v>
       </c>
       <c r="U5" t="n">
-        <v>1203.123559741827</v>
+        <v>1593.245935028019</v>
       </c>
       <c r="V5" t="n">
-        <v>1203.123559741827</v>
+        <v>1243.408380364499</v>
       </c>
       <c r="W5" t="n">
-        <v>1203.123559741827</v>
+        <v>1243.408380364499</v>
       </c>
       <c r="X5" t="n">
-        <v>809.0298428224162</v>
+        <v>842.764982533452</v>
       </c>
       <c r="Y5" t="n">
-        <v>809.0298428224162</v>
+        <v>801.0653472814371</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>498.0544439148359</v>
+        <v>704.8545568576841</v>
       </c>
       <c r="C6" t="n">
-        <v>364.0593726637816</v>
+        <v>570.8594856066297</v>
       </c>
       <c r="D6" t="n">
-        <v>247.1622148831741</v>
+        <v>453.9623278260221</v>
       </c>
       <c r="E6" t="n">
-        <v>247.1622148831741</v>
+        <v>333.4695118183502</v>
       </c>
       <c r="F6" t="n">
-        <v>138.2023350656787</v>
+        <v>224.5096320008547</v>
       </c>
       <c r="G6" t="n">
-        <v>31.21222238001735</v>
+        <v>132.9460625604768</v>
       </c>
       <c r="H6" t="n">
-        <v>31.21222238001735</v>
+        <v>62.19884959619282</v>
       </c>
       <c r="I6" t="n">
-        <v>31.21222238001735</v>
+        <v>41.45025821643299</v>
       </c>
       <c r="J6" t="n">
-        <v>31.21222238001735</v>
+        <v>234.2631157790662</v>
       </c>
       <c r="K6" t="n">
-        <v>417.4634743327321</v>
+        <v>690.069372044365</v>
       </c>
       <c r="L6" t="n">
-        <v>803.7147262854468</v>
+        <v>1180.161981346678</v>
       </c>
       <c r="M6" t="n">
-        <v>803.7147262854468</v>
+        <v>1180.161981346678</v>
       </c>
       <c r="N6" t="n">
-        <v>803.7147262854468</v>
+        <v>1693.108926775036</v>
       </c>
       <c r="O6" t="n">
-        <v>1174.359867048153</v>
+        <v>1693.108926775036</v>
       </c>
       <c r="P6" t="n">
-        <v>1560.611119000868</v>
+        <v>1693.108926775036</v>
       </c>
       <c r="Q6" t="n">
-        <v>1560.611119000868</v>
+        <v>2042.95339145902</v>
       </c>
       <c r="R6" t="n">
-        <v>1560.611119000868</v>
+        <v>2072.51291082165</v>
       </c>
       <c r="S6" t="n">
-        <v>1452.621109115176</v>
+        <v>1964.522900935958</v>
       </c>
       <c r="T6" t="n">
-        <v>1293.279245302185</v>
+        <v>1805.181037122967</v>
       </c>
       <c r="U6" t="n">
-        <v>1095.928434440403</v>
+        <v>1607.830226261185</v>
       </c>
       <c r="V6" t="n">
-        <v>1095.928434440403</v>
+        <v>1394.118699254219</v>
       </c>
       <c r="W6" t="n">
-        <v>882.6952661767319</v>
+        <v>1180.885530990548</v>
       </c>
       <c r="X6" t="n">
-        <v>706.3692843156248</v>
+        <v>1004.559549129441</v>
       </c>
       <c r="Y6" t="n">
-        <v>546.9673246794548</v>
+        <v>845.1575894932707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>824.6621949216443</v>
+        <v>1339.262972922437</v>
       </c>
       <c r="C7" t="n">
-        <v>653.5688224833608</v>
+        <v>1168.169600484154</v>
       </c>
       <c r="D7" t="n">
-        <v>494.0741778062708</v>
+        <v>1008.674955807063</v>
       </c>
       <c r="E7" t="n">
-        <v>333.1633626745903</v>
+        <v>1008.674955807063</v>
       </c>
       <c r="F7" t="n">
-        <v>333.1633626745903</v>
+        <v>844.0438299176548</v>
       </c>
       <c r="G7" t="n">
-        <v>165.9129716001337</v>
+        <v>676.7934388431981</v>
       </c>
       <c r="H7" t="n">
-        <v>147.5582682756912</v>
+        <v>659.4600600964732</v>
       </c>
       <c r="I7" t="n">
-        <v>31.21222238001735</v>
+        <v>543.1140142007994</v>
       </c>
       <c r="J7" t="n">
-        <v>45.29477178522787</v>
+        <v>557.1965636060099</v>
       </c>
       <c r="K7" t="n">
-        <v>199.8470995074659</v>
+        <v>711.748891328248</v>
       </c>
       <c r="L7" t="n">
-        <v>459.7441997875267</v>
+        <v>971.6459916083086</v>
       </c>
       <c r="M7" t="n">
-        <v>749.0082562280199</v>
+        <v>1260.910048048802</v>
       </c>
       <c r="N7" t="n">
-        <v>1029.84703862227</v>
+        <v>1541.748830443052</v>
       </c>
       <c r="O7" t="n">
-        <v>1289.407648948744</v>
+        <v>1801.309440769526</v>
       </c>
       <c r="P7" t="n">
-        <v>1495.083089198357</v>
+        <v>2006.984881019139</v>
       </c>
       <c r="Q7" t="n">
-        <v>1560.611119000868</v>
+        <v>2072.51291082165</v>
       </c>
       <c r="R7" t="n">
-        <v>1475.338400676267</v>
+        <v>1987.240192497049</v>
       </c>
       <c r="S7" t="n">
-        <v>1288.946632556178</v>
+        <v>1800.848424376959</v>
       </c>
       <c r="T7" t="n">
-        <v>1049.39789353288</v>
+        <v>1800.848424376959</v>
       </c>
       <c r="U7" t="n">
-        <v>1049.39789353288</v>
+        <v>1800.848424376959</v>
       </c>
       <c r="V7" t="n">
-        <v>1049.39789353288</v>
+        <v>1526.962679316481</v>
       </c>
       <c r="W7" t="n">
-        <v>1049.39789353288</v>
+        <v>1526.962679316481</v>
       </c>
       <c r="X7" t="n">
-        <v>1049.39789353288</v>
+        <v>1526.962679316481</v>
       </c>
       <c r="Y7" t="n">
-        <v>824.6621949216443</v>
+        <v>1526.962679316481</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>380.0821182156565</v>
+        <v>881.5511617534476</v>
       </c>
       <c r="C8" t="n">
-        <v>373.9979315693307</v>
+        <v>875.4669751071217</v>
       </c>
       <c r="D8" t="n">
-        <v>373.5744057027953</v>
+        <v>471.0030452001823</v>
       </c>
       <c r="E8" t="n">
-        <v>363.274594260096</v>
+        <v>460.703233757483</v>
       </c>
       <c r="F8" t="n">
-        <v>346.2845862541876</v>
+        <v>443.7132257515746</v>
       </c>
       <c r="G8" t="n">
-        <v>31.21222238001735</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H8" t="n">
-        <v>31.21222238001735</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>285.3976938477716</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>671.6489458004863</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L8" t="n">
-        <v>1057.900197753201</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M8" t="n">
-        <v>1057.900197753201</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N8" t="n">
-        <v>1057.900197753201</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O8" t="n">
-        <v>1057.900197753201</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P8" t="n">
-        <v>1239.450112205576</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q8" t="n">
-        <v>1560.611119000868</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1425.330043794968</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1425.330043794968</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U8" t="n">
-        <v>1168.269552054478</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V8" t="n">
-        <v>1168.269552054478</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="W8" t="n">
-        <v>1168.269552054478</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="X8" t="n">
-        <v>1168.269552054478</v>
+        <v>1288.668610429443</v>
       </c>
       <c r="Y8" t="n">
-        <v>774.1758351350675</v>
+        <v>887.731937377533</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>589.5502482588797</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>455.5551770078255</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D9" t="n">
-        <v>338.6580192272179</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E9" t="n">
-        <v>338.6580192272179</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>229.6981394097224</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G9" t="n">
-        <v>122.7080267240611</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>51.96081375977718</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I9" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>224.0250799426506</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K9" t="n">
-        <v>224.0250799426506</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L9" t="n">
-        <v>610.2763318953653</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M9" t="n">
-        <v>996.52758384808</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="N9" t="n">
-        <v>996.52758384808</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="O9" t="n">
-        <v>996.52758384808</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="P9" t="n">
-        <v>1382.778835800795</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="Q9" t="n">
-        <v>1531.051599638238</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S9" t="n">
-        <v>1560.611119000868</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T9" t="n">
-        <v>1401.269255187876</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U9" t="n">
-        <v>1203.918444326094</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>990.2069173191283</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>776.973749055457</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
-        <v>600.6477671943499</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>589.5502482588797</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>425.8288958692431</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="C10" t="n">
-        <v>254.7355234309596</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="D10" t="n">
-        <v>254.7355234309596</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="E10" t="n">
-        <v>254.7355234309596</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="F10" t="n">
-        <v>254.7355234309596</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="G10" t="n">
-        <v>254.7355234309596</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
-        <v>147.5582682756912</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J10" t="n">
-        <v>45.29477178522787</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K10" t="n">
-        <v>199.8470995074659</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L10" t="n">
-        <v>459.7441997875264</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M10" t="n">
-        <v>749.0082562280197</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N10" t="n">
-        <v>1029.84703862227</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O10" t="n">
-        <v>1289.407648948744</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P10" t="n">
-        <v>1495.083089198357</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q10" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1560.611119000868</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1374.219350880778</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T10" t="n">
-        <v>1134.67061185748</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U10" t="n">
-        <v>851.872464403604</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="V10" t="n">
-        <v>851.872464403604</v>
+        <v>733.7621552541802</v>
       </c>
       <c r="W10" t="n">
-        <v>851.872464403604</v>
+        <v>733.7621552541802</v>
       </c>
       <c r="X10" t="n">
-        <v>613.5286022632874</v>
+        <v>495.4182931138637</v>
       </c>
       <c r="Y10" t="n">
-        <v>613.5286022632874</v>
+        <v>495.4182931138637</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1378.047564964767</v>
+        <v>2080.954409242187</v>
       </c>
       <c r="C11" t="n">
-        <v>1378.047564964767</v>
+        <v>1736.166594305405</v>
       </c>
       <c r="D11" t="n">
-        <v>1378.047564964767</v>
+        <v>1397.039440148413</v>
       </c>
       <c r="E11" t="n">
-        <v>1029.044125231612</v>
+        <v>1048.036000415257</v>
       </c>
       <c r="F11" t="n">
-        <v>673.350488935247</v>
+        <v>692.3423641188926</v>
       </c>
       <c r="G11" t="n">
-        <v>329.9589805780267</v>
+        <v>348.9508557616723</v>
       </c>
       <c r="H11" t="n">
-        <v>84.38725895569235</v>
+        <v>103.3791341393379</v>
       </c>
       <c r="I11" t="n">
-        <v>63.3722720227131</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J11" t="n">
-        <v>317.5577434904674</v>
+        <v>336.549618674113</v>
       </c>
       <c r="K11" t="n">
-        <v>317.5577434904674</v>
+        <v>874.7091197831526</v>
       </c>
       <c r="L11" t="n">
-        <v>317.5577434904674</v>
+        <v>1094.759191556014</v>
       </c>
       <c r="M11" t="n">
-        <v>1093.876334482221</v>
+        <v>1871.077782547768</v>
       </c>
       <c r="N11" t="n">
-        <v>1847.057351120839</v>
+        <v>2624.258799186386</v>
       </c>
       <c r="O11" t="n">
-        <v>2490.688207537944</v>
+        <v>3267.889655603491</v>
       </c>
       <c r="P11" t="n">
-        <v>3019.844905457096</v>
+        <v>3797.046353522642</v>
       </c>
       <c r="Q11" t="n">
-        <v>3128.05695544609</v>
+        <v>4118.207360317934</v>
       </c>
       <c r="R11" t="n">
-        <v>3168.613601135655</v>
+        <v>4118.207360317934</v>
       </c>
       <c r="S11" t="n">
-        <v>3098.669301679703</v>
+        <v>4048.263060861983</v>
       </c>
       <c r="T11" t="n">
-        <v>2941.79959337651</v>
+        <v>3891.393352558789</v>
       </c>
       <c r="U11" t="n">
-        <v>2941.79959337651</v>
+        <v>3699.669636568247</v>
       </c>
       <c r="V11" t="n">
-        <v>2712.262013377255</v>
+        <v>3415.168857654675</v>
       </c>
       <c r="W11" t="n">
-        <v>2393.838488262371</v>
+        <v>3096.745332539791</v>
       </c>
       <c r="X11" t="n">
-        <v>2058.531866181272</v>
+        <v>2761.438710458692</v>
       </c>
       <c r="Y11" t="n">
-        <v>1722.931968879309</v>
+        <v>2425.838813156729</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>742.2031139092476</v>
+        <v>761.1949890928931</v>
       </c>
       <c r="C12" t="n">
-        <v>608.2080426581932</v>
+        <v>627.1999178418388</v>
       </c>
       <c r="D12" t="n">
-        <v>491.3108848775856</v>
+        <v>510.3027600612312</v>
       </c>
       <c r="E12" t="n">
-        <v>370.8180688699136</v>
+        <v>389.8099440535592</v>
       </c>
       <c r="F12" t="n">
-        <v>261.8581890524182</v>
+        <v>280.8500642360638</v>
       </c>
       <c r="G12" t="n">
-        <v>154.8680763667569</v>
+        <v>173.8599515504025</v>
       </c>
       <c r="H12" t="n">
-        <v>84.12086340247293</v>
+        <v>103.1127385861185</v>
       </c>
       <c r="I12" t="n">
-        <v>63.3722720227131</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J12" t="n">
-        <v>256.1851295853463</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="K12" t="n">
-        <v>256.1851295853463</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="L12" t="n">
-        <v>256.1851295853463</v>
+        <v>581.9191718163977</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1129916836144</v>
+        <v>1424.896252510964</v>
       </c>
       <c r="N12" t="n">
-        <v>1376.344857964689</v>
+        <v>1424.896252510964</v>
       </c>
       <c r="O12" t="n">
-        <v>2080.301948510583</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="P12" t="n">
-        <v>2080.301948510583</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="Q12" t="n">
-        <v>2080.301948510583</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="R12" t="n">
-        <v>2109.861467873213</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="S12" t="n">
-        <v>2001.871457987522</v>
+        <v>2020.863333171168</v>
       </c>
       <c r="T12" t="n">
-        <v>1842.529594174531</v>
+        <v>1861.521469358176</v>
       </c>
       <c r="U12" t="n">
-        <v>1645.178783312749</v>
+        <v>1664.170658496394</v>
       </c>
       <c r="V12" t="n">
-        <v>1431.467256305783</v>
+        <v>1450.459131489428</v>
       </c>
       <c r="W12" t="n">
-        <v>1218.234088042112</v>
+        <v>1237.225963225757</v>
       </c>
       <c r="X12" t="n">
-        <v>1041.908106181004</v>
+        <v>1060.89998136465</v>
       </c>
       <c r="Y12" t="n">
-        <v>882.5061465448342</v>
+        <v>901.4980217284798</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.3486920742163</v>
+        <v>714.3405672578622</v>
       </c>
       <c r="C13" t="n">
-        <v>589.5920953858804</v>
+        <v>608.5839705695263</v>
       </c>
       <c r="D13" t="n">
-        <v>495.434226458738</v>
+        <v>514.4261016423839</v>
       </c>
       <c r="E13" t="n">
-        <v>399.8601870770052</v>
+        <v>418.8520622606509</v>
       </c>
       <c r="F13" t="n">
-        <v>300.5658369375441</v>
+        <v>319.5577121211897</v>
       </c>
       <c r="G13" t="n">
-        <v>198.6522216130351</v>
+        <v>217.6440967966807</v>
       </c>
       <c r="H13" t="n">
-        <v>114.3815421684394</v>
+        <v>133.3734173520849</v>
       </c>
       <c r="I13" t="n">
-        <v>63.3722720227131</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J13" t="n">
-        <v>141.4913953404473</v>
+        <v>160.4832705240929</v>
       </c>
       <c r="K13" t="n">
-        <v>360.0802969752089</v>
+        <v>379.0721721588545</v>
       </c>
       <c r="L13" t="n">
-        <v>684.013971167793</v>
+        <v>703.0058463514387</v>
       </c>
       <c r="M13" t="n">
-        <v>1037.31460152081</v>
+        <v>1056.306476704456</v>
       </c>
       <c r="N13" t="n">
-        <v>1382.189957827584</v>
+        <v>1401.18183301123</v>
       </c>
       <c r="O13" t="n">
-        <v>1705.787142066582</v>
+        <v>1724.779017250227</v>
       </c>
       <c r="P13" t="n">
-        <v>1975.499156228718</v>
+        <v>1994.491031412363</v>
       </c>
       <c r="Q13" t="n">
-        <v>2105.063759943752</v>
+        <v>2124.055635127398</v>
       </c>
       <c r="R13" t="n">
-        <v>2085.127817369099</v>
+        <v>2104.119692552745</v>
       </c>
       <c r="S13" t="n">
-        <v>1964.072824998957</v>
+        <v>1983.064700182603</v>
       </c>
       <c r="T13" t="n">
-        <v>1789.860861725607</v>
+        <v>1808.852736909252</v>
       </c>
       <c r="U13" t="n">
-        <v>1572.399490021678</v>
+        <v>1591.391365205324</v>
       </c>
       <c r="V13" t="n">
-        <v>1363.850520711148</v>
+        <v>1382.842395894794</v>
       </c>
       <c r="W13" t="n">
-        <v>1150.11763196997</v>
+        <v>1169.109507153616</v>
       </c>
       <c r="X13" t="n">
-        <v>977.1105455796007</v>
+        <v>996.1024207632466</v>
       </c>
       <c r="Y13" t="n">
-        <v>817.711622718313</v>
+        <v>836.7034979019589</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1131.360650059909</v>
+        <v>2080.954409242187</v>
       </c>
       <c r="C14" t="n">
-        <v>1131.360650059909</v>
+        <v>1736.166594305405</v>
       </c>
       <c r="D14" t="n">
-        <v>792.2334959029168</v>
+        <v>1397.039440148413</v>
       </c>
       <c r="E14" t="n">
-        <v>685.6526168743916</v>
+        <v>1048.036000415258</v>
       </c>
       <c r="F14" t="n">
-        <v>329.9589805780267</v>
+        <v>692.3423641188926</v>
       </c>
       <c r="G14" t="n">
-        <v>329.9589805780267</v>
+        <v>348.9508557616724</v>
       </c>
       <c r="H14" t="n">
-        <v>84.38725895569235</v>
+        <v>103.3791341393379</v>
       </c>
       <c r="I14" t="n">
-        <v>63.37227202271311</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J14" t="n">
-        <v>317.5577434904674</v>
+        <v>336.549618674113</v>
       </c>
       <c r="K14" t="n">
-        <v>466.3264391690271</v>
+        <v>874.7091197831526</v>
       </c>
       <c r="L14" t="n">
-        <v>466.3264391690271</v>
+        <v>1587.300519595391</v>
       </c>
       <c r="M14" t="n">
-        <v>1242.645030160781</v>
+        <v>2363.619110587144</v>
       </c>
       <c r="N14" t="n">
-        <v>1995.826046799399</v>
+        <v>3116.800127225762</v>
       </c>
       <c r="O14" t="n">
-        <v>2639.456903216504</v>
+        <v>3760.430983642867</v>
       </c>
       <c r="P14" t="n">
-        <v>3168.613601135656</v>
+        <v>4118.207360317934</v>
       </c>
       <c r="Q14" t="n">
-        <v>3168.613601135656</v>
+        <v>4118.207360317934</v>
       </c>
       <c r="R14" t="n">
-        <v>3168.613601135656</v>
+        <v>4118.207360317934</v>
       </c>
       <c r="S14" t="n">
-        <v>3098.669301679704</v>
+        <v>4048.263060861982</v>
       </c>
       <c r="T14" t="n">
-        <v>2941.799593376511</v>
+        <v>3891.393352558789</v>
       </c>
       <c r="U14" t="n">
-        <v>2750.075877385968</v>
+        <v>3699.669636568247</v>
       </c>
       <c r="V14" t="n">
-        <v>2465.575098472397</v>
+        <v>3415.168857654675</v>
       </c>
       <c r="W14" t="n">
-        <v>2147.151573357513</v>
+        <v>3096.745332539791</v>
       </c>
       <c r="X14" t="n">
-        <v>1811.844951276413</v>
+        <v>2761.438710458692</v>
       </c>
       <c r="Y14" t="n">
-        <v>1476.245053974451</v>
+        <v>2425.838813156729</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1800.95524717169</v>
+        <v>2750.549006353969</v>
       </c>
       <c r="C15" t="n">
-        <v>1666.960175920636</v>
+        <v>2616.553935102914</v>
       </c>
       <c r="D15" t="n">
-        <v>1550.063018140028</v>
+        <v>2499.656777322307</v>
       </c>
       <c r="E15" t="n">
-        <v>1429.570202132356</v>
+        <v>2379.163961314635</v>
       </c>
       <c r="F15" t="n">
-        <v>1320.610322314861</v>
+        <v>2270.20408149714</v>
       </c>
       <c r="G15" t="n">
-        <v>1213.6202096292</v>
+        <v>2163.213968811478</v>
       </c>
       <c r="H15" t="n">
-        <v>1142.872996664915</v>
+        <v>2092.466755847195</v>
       </c>
       <c r="I15" t="n">
-        <v>1122.124405285156</v>
+        <v>2071.718164467435</v>
       </c>
       <c r="J15" t="n">
-        <v>1314.937262847789</v>
+        <v>2190.747712976439</v>
       </c>
       <c r="K15" t="n">
-        <v>1314.937262847789</v>
+        <v>2190.747712976439</v>
       </c>
       <c r="L15" t="n">
-        <v>1976.025434767077</v>
+        <v>2190.747712976439</v>
       </c>
       <c r="M15" t="n">
-        <v>2114.812045905778</v>
+        <v>2190.747712976439</v>
       </c>
       <c r="N15" t="n">
-        <v>2114.812045905778</v>
+        <v>3064.405805088057</v>
       </c>
       <c r="O15" t="n">
-        <v>2818.769136451672</v>
+        <v>3768.362895633951</v>
       </c>
       <c r="P15" t="n">
-        <v>2818.769136451672</v>
+        <v>3768.362895633951</v>
       </c>
       <c r="Q15" t="n">
-        <v>3168.613601135656</v>
+        <v>4118.207360317934</v>
       </c>
       <c r="R15" t="n">
-        <v>3168.613601135656</v>
+        <v>4118.207360317934</v>
       </c>
       <c r="S15" t="n">
-        <v>3060.623591249965</v>
+        <v>4010.217350432243</v>
       </c>
       <c r="T15" t="n">
-        <v>2901.281727436973</v>
+        <v>3850.875486619251</v>
       </c>
       <c r="U15" t="n">
-        <v>2703.930916575192</v>
+        <v>3653.52467575747</v>
       </c>
       <c r="V15" t="n">
-        <v>2490.219389568225</v>
+        <v>3439.813148750504</v>
       </c>
       <c r="W15" t="n">
-        <v>2276.986221304554</v>
+        <v>3226.579980486832</v>
       </c>
       <c r="X15" t="n">
-        <v>2100.660239443447</v>
+        <v>3050.253998625725</v>
       </c>
       <c r="Y15" t="n">
-        <v>1941.258279807277</v>
+        <v>2890.852038989555</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.3486920742163</v>
+        <v>2708.492292448399</v>
       </c>
       <c r="C16" t="n">
-        <v>589.5920953858804</v>
+        <v>2602.735695760063</v>
       </c>
       <c r="D16" t="n">
-        <v>495.434226458738</v>
+        <v>2508.57782683292</v>
       </c>
       <c r="E16" t="n">
-        <v>399.8601870770051</v>
+        <v>2413.003787451187</v>
       </c>
       <c r="F16" t="n">
-        <v>300.565836937544</v>
+        <v>2313.709437311726</v>
       </c>
       <c r="G16" t="n">
-        <v>198.652221613035</v>
+        <v>2211.795821987217</v>
       </c>
       <c r="H16" t="n">
-        <v>114.3815421684394</v>
+        <v>2127.525142542621</v>
       </c>
       <c r="I16" t="n">
-        <v>63.37227202271311</v>
+        <v>2076.515872396895</v>
       </c>
       <c r="J16" t="n">
-        <v>141.4913953404474</v>
+        <v>2154.634995714629</v>
       </c>
       <c r="K16" t="n">
-        <v>360.080296975209</v>
+        <v>2373.223897349391</v>
       </c>
       <c r="L16" t="n">
-        <v>684.0139711677932</v>
+        <v>2697.157571541975</v>
       </c>
       <c r="M16" t="n">
-        <v>1037.31460152081</v>
+        <v>3050.458201894992</v>
       </c>
       <c r="N16" t="n">
-        <v>1382.189957827584</v>
+        <v>3395.333558201766</v>
       </c>
       <c r="O16" t="n">
-        <v>1705.787142066582</v>
+        <v>3718.930742440763</v>
       </c>
       <c r="P16" t="n">
-        <v>1975.499156228718</v>
+        <v>3988.6427566029</v>
       </c>
       <c r="Q16" t="n">
-        <v>2105.063759943752</v>
+        <v>4118.207360317934</v>
       </c>
       <c r="R16" t="n">
-        <v>2085.1278173691</v>
+        <v>4098.271417743282</v>
       </c>
       <c r="S16" t="n">
-        <v>1964.072824998957</v>
+        <v>3977.216425373139</v>
       </c>
       <c r="T16" t="n">
-        <v>1789.860861725607</v>
+        <v>3803.004462099789</v>
       </c>
       <c r="U16" t="n">
-        <v>1572.399490021679</v>
+        <v>3585.543090395861</v>
       </c>
       <c r="V16" t="n">
-        <v>1363.850520711148</v>
+        <v>3376.99412108533</v>
       </c>
       <c r="W16" t="n">
-        <v>1150.11763196997</v>
+        <v>3163.261232344152</v>
       </c>
       <c r="X16" t="n">
-        <v>977.1105455796011</v>
+        <v>2990.254145953783</v>
       </c>
       <c r="Y16" t="n">
-        <v>817.711622718313</v>
+        <v>2830.855223092496</v>
       </c>
     </row>
     <row r="17">
@@ -5513,28 +5515,28 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J17" t="n">
-        <v>82.36414720635868</v>
+        <v>336.549618674113</v>
       </c>
       <c r="K17" t="n">
-        <v>620.5236483153982</v>
+        <v>341.6111460542108</v>
       </c>
       <c r="L17" t="n">
-        <v>1333.115048127636</v>
+        <v>1054.202545866449</v>
       </c>
       <c r="M17" t="n">
-        <v>2109.43363911939</v>
+        <v>1830.521136858203</v>
       </c>
       <c r="N17" t="n">
-        <v>2862.614655758008</v>
+        <v>2583.702153496821</v>
       </c>
       <c r="O17" t="n">
-        <v>3506.245512175113</v>
+        <v>3227.333009913926</v>
       </c>
       <c r="P17" t="n">
-        <v>4035.402210094265</v>
+        <v>3756.489707833077</v>
       </c>
       <c r="Q17" t="n">
-        <v>4118.207360317934</v>
+        <v>4077.650714628369</v>
       </c>
       <c r="R17" t="n">
         <v>4118.207360317934</v>
@@ -5592,28 +5594,28 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J18" t="n">
-        <v>275.1770047689919</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="K18" t="n">
-        <v>275.1770047689919</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="L18" t="n">
-        <v>275.1770047689919</v>
+        <v>743.4523191256469</v>
       </c>
       <c r="M18" t="n">
-        <v>1118.154085463559</v>
+        <v>743.4523191256469</v>
       </c>
       <c r="N18" t="n">
-        <v>1187.743466521715</v>
+        <v>863.1903600224343</v>
       </c>
       <c r="O18" t="n">
-        <v>1187.743466521715</v>
+        <v>1567.147450568329</v>
       </c>
       <c r="P18" t="n">
-        <v>1749.449359010245</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="Q18" t="n">
-        <v>2099.293823694229</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="R18" t="n">
         <v>2128.853343056859</v>
@@ -5665,7 +5667,7 @@
         <v>217.6440967966802</v>
       </c>
       <c r="H19" t="n">
-        <v>133.3734173520849</v>
+        <v>133.3734173520844</v>
       </c>
       <c r="I19" t="n">
         <v>82.36414720635868</v>
@@ -5735,13 +5737,13 @@
         <v>1397.039440148413</v>
       </c>
       <c r="E20" t="n">
-        <v>1048.036000415258</v>
+        <v>1048.036000415257</v>
       </c>
       <c r="F20" t="n">
-        <v>692.3423641188928</v>
+        <v>692.3423641188925</v>
       </c>
       <c r="G20" t="n">
-        <v>348.9508557616725</v>
+        <v>348.9508557616723</v>
       </c>
       <c r="H20" t="n">
         <v>103.3791341393379</v>
@@ -5750,25 +5752,25 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J20" t="n">
-        <v>82.36414720635868</v>
+        <v>336.549618674113</v>
       </c>
       <c r="K20" t="n">
-        <v>620.5236483153982</v>
+        <v>874.7091197831526</v>
       </c>
       <c r="L20" t="n">
-        <v>1333.115048127636</v>
+        <v>1587.300519595391</v>
       </c>
       <c r="M20" t="n">
-        <v>2109.43363911939</v>
+        <v>1830.521136858203</v>
       </c>
       <c r="N20" t="n">
-        <v>2862.614655758008</v>
+        <v>2583.702153496821</v>
       </c>
       <c r="O20" t="n">
-        <v>3506.245512175113</v>
+        <v>3227.333009913926</v>
       </c>
       <c r="P20" t="n">
-        <v>4035.402210094265</v>
+        <v>3756.489707833077</v>
       </c>
       <c r="Q20" t="n">
         <v>4077.650714628369</v>
@@ -5783,7 +5785,7 @@
         <v>3891.393352558789</v>
       </c>
       <c r="U20" t="n">
-        <v>3699.669636568246</v>
+        <v>3699.669636568247</v>
       </c>
       <c r="V20" t="n">
         <v>3415.168857654675</v>
@@ -5829,25 +5831,25 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J21" t="n">
-        <v>275.1770047689919</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="K21" t="n">
-        <v>275.1770047689919</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="L21" t="n">
-        <v>275.1770047689919</v>
+        <v>743.4523191256469</v>
       </c>
       <c r="M21" t="n">
-        <v>1118.154085463559</v>
+        <v>743.4523191256469</v>
       </c>
       <c r="N21" t="n">
-        <v>1118.154085463559</v>
+        <v>1424.896252510964</v>
       </c>
       <c r="O21" t="n">
-        <v>1822.111176009453</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="P21" t="n">
-        <v>1822.111176009453</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="Q21" t="n">
         <v>2128.853343056859</v>
@@ -5911,10 +5913,10 @@
         <v>160.4832705240929</v>
       </c>
       <c r="K22" t="n">
-        <v>379.0721721588546</v>
+        <v>379.0721721588545</v>
       </c>
       <c r="L22" t="n">
-        <v>703.0058463514388</v>
+        <v>703.0058463514387</v>
       </c>
       <c r="M22" t="n">
         <v>1056.306476704456</v>
@@ -5923,10 +5925,10 @@
         <v>1401.18183301123</v>
       </c>
       <c r="O22" t="n">
-        <v>1724.779017250228</v>
+        <v>1724.779017250227</v>
       </c>
       <c r="P22" t="n">
-        <v>1994.491031412364</v>
+        <v>1994.491031412363</v>
       </c>
       <c r="Q22" t="n">
         <v>2124.055635127398</v>
@@ -5975,7 +5977,7 @@
         <v>1048.036000415258</v>
       </c>
       <c r="F23" t="n">
-        <v>692.3423641188928</v>
+        <v>692.3423641188926</v>
       </c>
       <c r="G23" t="n">
         <v>348.9508557616724</v>
@@ -6069,19 +6071,19 @@
         <v>82.36414720635868</v>
       </c>
       <c r="K24" t="n">
-        <v>82.36414720635868</v>
+        <v>538.1704034716574</v>
       </c>
       <c r="L24" t="n">
-        <v>82.36414720635868</v>
+        <v>1199.258575390946</v>
       </c>
       <c r="M24" t="n">
-        <v>925.3412279009253</v>
+        <v>1199.258575390946</v>
       </c>
       <c r="N24" t="n">
-        <v>1395.336733148334</v>
+        <v>1199.258575390946</v>
       </c>
       <c r="O24" t="n">
-        <v>2099.293823694229</v>
+        <v>1903.21566593684</v>
       </c>
       <c r="P24" t="n">
         <v>2099.293823694229</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>714.3405672578622</v>
+        <v>2708.492292448399</v>
       </c>
       <c r="C25" t="n">
-        <v>608.5839705695263</v>
+        <v>2602.735695760062</v>
       </c>
       <c r="D25" t="n">
-        <v>514.4261016423839</v>
+        <v>2508.57782683292</v>
       </c>
       <c r="E25" t="n">
-        <v>418.8520622606509</v>
+        <v>2413.003787451187</v>
       </c>
       <c r="F25" t="n">
-        <v>319.5577121211897</v>
+        <v>2313.709437311726</v>
       </c>
       <c r="G25" t="n">
-        <v>217.6440967966807</v>
+        <v>2211.795821987217</v>
       </c>
       <c r="H25" t="n">
-        <v>133.3734173520849</v>
+        <v>2127.525142542621</v>
       </c>
       <c r="I25" t="n">
-        <v>82.36414720635868</v>
+        <v>2076.515872396895</v>
       </c>
       <c r="J25" t="n">
-        <v>160.4832705240929</v>
+        <v>2154.634995714629</v>
       </c>
       <c r="K25" t="n">
-        <v>379.0721721588545</v>
+        <v>2373.223897349391</v>
       </c>
       <c r="L25" t="n">
-        <v>703.0058463514387</v>
+        <v>2697.157571541975</v>
       </c>
       <c r="M25" t="n">
-        <v>1056.306476704456</v>
+        <v>3050.458201894992</v>
       </c>
       <c r="N25" t="n">
-        <v>1401.18183301123</v>
+        <v>3395.333558201766</v>
       </c>
       <c r="O25" t="n">
-        <v>1724.779017250227</v>
+        <v>3718.930742440763</v>
       </c>
       <c r="P25" t="n">
-        <v>1994.491031412363</v>
+        <v>3988.6427566029</v>
       </c>
       <c r="Q25" t="n">
-        <v>2124.055635127398</v>
+        <v>4118.207360317934</v>
       </c>
       <c r="R25" t="n">
-        <v>2104.119692552745</v>
+        <v>4098.271417743281</v>
       </c>
       <c r="S25" t="n">
-        <v>1983.064700182603</v>
+        <v>3977.216425373139</v>
       </c>
       <c r="T25" t="n">
-        <v>1808.852736909252</v>
+        <v>3803.004462099789</v>
       </c>
       <c r="U25" t="n">
-        <v>1591.391365205324</v>
+        <v>3585.54309039586</v>
       </c>
       <c r="V25" t="n">
-        <v>1382.842395894793</v>
+        <v>3376.99412108533</v>
       </c>
       <c r="W25" t="n">
-        <v>1169.109507153616</v>
+        <v>3163.261232344152</v>
       </c>
       <c r="X25" t="n">
-        <v>996.1024207632466</v>
+        <v>2990.254145953783</v>
       </c>
       <c r="Y25" t="n">
-        <v>836.7034979019589</v>
+        <v>2830.855223092495</v>
       </c>
     </row>
     <row r="26">
@@ -6254,13 +6256,13 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T26" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U26" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V26" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W26" t="n">
         <v>3463.023532176683</v>
@@ -6312,10 +6314,10 @@
         <v>1210.13812587521</v>
       </c>
       <c r="M27" t="n">
-        <v>1578.027001052593</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N27" t="n">
-        <v>1578.027001052593</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O27" t="n">
         <v>1578.027001052593</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3779.909843896036</v>
+        <v>480.2054561326582</v>
       </c>
       <c r="C28" t="n">
-        <v>3638.613382292437</v>
+        <v>480.2054561326582</v>
       </c>
       <c r="D28" t="n">
-        <v>3508.915648450032</v>
+        <v>350.5077222902531</v>
       </c>
       <c r="E28" t="n">
-        <v>3377.801744153036</v>
+        <v>350.5077222902531</v>
       </c>
       <c r="F28" t="n">
-        <v>3242.967529098312</v>
+        <v>350.5077222902531</v>
       </c>
       <c r="G28" t="n">
-        <v>3105.514048858541</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="H28" t="n">
-        <v>2985.703504498682</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>2899.154369437693</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>2942.440871151978</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K28" t="n">
-        <v>3126.197151183291</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L28" t="n">
-        <v>3415.298203772426</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M28" t="n">
-        <v>3733.766212521994</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N28" t="n">
-        <v>4043.808947225319</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O28" t="n">
-        <v>4332.573509860867</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P28" t="n">
-        <v>4567.452902419554</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R28" t="n">
-        <v>4606.709077041224</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S28" t="n">
-        <v>4606.709077041224</v>
+        <v>1789.161692158606</v>
       </c>
       <c r="T28" t="n">
-        <v>4396.957248852611</v>
+        <v>1579.409863969993</v>
       </c>
       <c r="U28" t="n">
-        <v>4143.95601223342</v>
+        <v>1326.408627350802</v>
       </c>
       <c r="V28" t="n">
-        <v>3988.456795201668</v>
+        <v>1082.319793125009</v>
       </c>
       <c r="W28" t="n">
-        <v>3988.456795201668</v>
+        <v>833.0470394685683</v>
       </c>
       <c r="X28" t="n">
-        <v>3779.909843896036</v>
+        <v>833.0470394685683</v>
       </c>
       <c r="Y28" t="n">
-        <v>3779.909843896036</v>
+        <v>638.1082516920178</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6442,19 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C29" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D29" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E29" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F29" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489446</v>
       </c>
       <c r="G29" t="n">
-        <v>430.9101360764621</v>
+        <v>430.9101360764616</v>
       </c>
       <c r="H29" t="n">
         <v>149.7985495388648</v>
@@ -6491,13 +6493,13 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T29" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U29" t="n">
         <v>4137.027566035664</v>
       </c>
       <c r="V29" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W29" t="n">
         <v>3463.023532176683</v>
@@ -6543,25 +6545,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>393.5382013723083</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>393.5382013723083</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M30" t="n">
-        <v>1236.515282066875</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N30" t="n">
-        <v>2110.173374178493</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O30" t="n">
-        <v>2110.173374178493</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P30" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3779.909843896035</v>
+        <v>973.9991721489654</v>
       </c>
       <c r="C31" t="n">
-        <v>3638.613382292437</v>
+        <v>832.7027105453667</v>
       </c>
       <c r="D31" t="n">
-        <v>3508.915648450031</v>
+        <v>703.0049767029616</v>
       </c>
       <c r="E31" t="n">
-        <v>3377.801744153036</v>
+        <v>571.8910724059659</v>
       </c>
       <c r="F31" t="n">
-        <v>3242.967529098312</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="G31" t="n">
-        <v>3105.51404885854</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H31" t="n">
-        <v>2985.703504498682</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I31" t="n">
-        <v>2899.154369437693</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>2942.440871151978</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K31" t="n">
-        <v>3126.197151183291</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L31" t="n">
-        <v>3415.298203772426</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M31" t="n">
-        <v>3733.766212521994</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N31" t="n">
-        <v>4043.808947225319</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O31" t="n">
-        <v>4332.573509860867</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P31" t="n">
-        <v>4567.452902419554</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R31" t="n">
-        <v>4662.18488453114</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S31" t="n">
-        <v>4505.590027245735</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T31" t="n">
-        <v>4295.838199057122</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="U31" t="n">
-        <v>4146.359590761027</v>
+        <v>1603.272976164879</v>
       </c>
       <c r="V31" t="n">
-        <v>4146.359590761027</v>
+        <v>1535.387706790507</v>
       </c>
       <c r="W31" t="n">
-        <v>4146.359590761027</v>
+        <v>1535.387706790507</v>
       </c>
       <c r="X31" t="n">
-        <v>3937.812639455395</v>
+        <v>1326.840755484875</v>
       </c>
       <c r="Y31" t="n">
-        <v>3937.812639455395</v>
+        <v>1131.901967708325</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6691,7 @@
         <v>809.841509348945</v>
       </c>
       <c r="G32" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H32" t="n">
         <v>149.7985495388648</v>
@@ -6728,22 +6730,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T32" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U32" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V32" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W32" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X32" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y32" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C33" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D33" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E33" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F33" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G33" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H33" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I33" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>3115.250713290679</v>
       </c>
       <c r="M33" t="n">
-        <v>93.2436976906228</v>
+        <v>3958.227793985246</v>
       </c>
       <c r="N33" t="n">
-        <v>874.0699105066985</v>
+        <v>3958.227793985246</v>
       </c>
       <c r="O33" t="n">
-        <v>1578.027001052593</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R33" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S33" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T33" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U33" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V33" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W33" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X33" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y33" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="34">
@@ -6883,25 +6885,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S34" t="n">
-        <v>1644.203548008749</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="T34" t="n">
-        <v>1644.203548008749</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="U34" t="n">
-        <v>1535.387706790507</v>
+        <v>1547.797168674963</v>
       </c>
       <c r="V34" t="n">
-        <v>1535.387706790507</v>
+        <v>1303.70833444917</v>
       </c>
       <c r="W34" t="n">
-        <v>1535.387706790507</v>
+        <v>1303.70833444917</v>
       </c>
       <c r="X34" t="n">
-        <v>1326.840755484875</v>
+        <v>1095.161383143538</v>
       </c>
       <c r="Y34" t="n">
-        <v>1131.901967708325</v>
+        <v>973.9991721489654</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2080.954409242187</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C35" t="n">
-        <v>1736.166594305405</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D35" t="n">
-        <v>1397.039440148414</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E35" t="n">
-        <v>1048.036000415258</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F35" t="n">
-        <v>692.342364118893</v>
+        <v>809.8415093489455</v>
       </c>
       <c r="G35" t="n">
-        <v>348.9508557616728</v>
+        <v>430.9101360764625</v>
       </c>
       <c r="H35" t="n">
-        <v>103.3791341393379</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I35" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>82.36414720635868</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K35" t="n">
-        <v>341.6111460542108</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L35" t="n">
-        <v>1054.202545866449</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M35" t="n">
-        <v>1830.521136858203</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N35" t="n">
-        <v>2583.702153496821</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O35" t="n">
-        <v>3227.333009913926</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P35" t="n">
-        <v>3756.489707833077</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q35" t="n">
-        <v>4077.650714628369</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R35" t="n">
-        <v>4118.207360317934</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4048.263060861982</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T35" t="n">
-        <v>3891.393352558789</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U35" t="n">
-        <v>3699.669636568246</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V35" t="n">
-        <v>3415.168857654675</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W35" t="n">
-        <v>3096.745332539791</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X35" t="n">
-        <v>2761.438710458691</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y35" t="n">
-        <v>2425.838813156729</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>761.1949890928931</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C36" t="n">
-        <v>627.1999178418388</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D36" t="n">
-        <v>510.3027600612312</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E36" t="n">
-        <v>389.8099440535592</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F36" t="n">
-        <v>280.8500642360638</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G36" t="n">
-        <v>173.8599515504025</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H36" t="n">
-        <v>103.1127385861185</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I36" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>925.3412279009253</v>
+        <v>212.2732461996272</v>
       </c>
       <c r="N36" t="n">
-        <v>925.3412279009253</v>
+        <v>1085.931338311245</v>
       </c>
       <c r="O36" t="n">
-        <v>1187.743466521715</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="P36" t="n">
-        <v>1749.449359010245</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
-        <v>2099.293823694229</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
-        <v>2128.853343056859</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S36" t="n">
-        <v>2020.863333171168</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T36" t="n">
-        <v>1861.521469358176</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U36" t="n">
-        <v>1664.170658496394</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V36" t="n">
-        <v>1450.459131489428</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W36" t="n">
-        <v>1237.225963225757</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X36" t="n">
-        <v>1060.89998136465</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y36" t="n">
-        <v>901.4980217284798</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>714.3405672578621</v>
+        <v>854.1886277891069</v>
       </c>
       <c r="C37" t="n">
-        <v>608.5839705695262</v>
+        <v>712.8921661855082</v>
       </c>
       <c r="D37" t="n">
-        <v>514.4261016423837</v>
+        <v>583.1944323431031</v>
       </c>
       <c r="E37" t="n">
-        <v>418.8520622606508</v>
+        <v>452.0805280461075</v>
       </c>
       <c r="F37" t="n">
-        <v>319.5577121211896</v>
+        <v>317.2463129913835</v>
       </c>
       <c r="G37" t="n">
-        <v>217.6440967966807</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="H37" t="n">
-        <v>133.3734173520849</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I37" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>160.4832705240929</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K37" t="n">
-        <v>379.0721721588541</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L37" t="n">
-        <v>703.0058463514383</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M37" t="n">
-        <v>1056.306476704455</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N37" t="n">
-        <v>1401.181833011229</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O37" t="n">
-        <v>1724.779017250227</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P37" t="n">
-        <v>1994.491031412363</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q37" t="n">
-        <v>2124.055635127398</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R37" t="n">
-        <v>2104.119692552745</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S37" t="n">
-        <v>1983.064700182603</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T37" t="n">
-        <v>1808.852736909253</v>
+        <v>1664.849916087089</v>
       </c>
       <c r="U37" t="n">
-        <v>1591.391365205324</v>
+        <v>1664.849916087089</v>
       </c>
       <c r="V37" t="n">
-        <v>1382.842395894794</v>
+        <v>1664.849916087089</v>
       </c>
       <c r="W37" t="n">
-        <v>1169.109507153616</v>
+        <v>1415.577162430649</v>
       </c>
       <c r="X37" t="n">
-        <v>996.1024207632465</v>
+        <v>1207.030211125017</v>
       </c>
       <c r="Y37" t="n">
-        <v>836.7034979019588</v>
+        <v>1012.091423348466</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2080.954409242187</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C38" t="n">
-        <v>1736.166594305405</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D38" t="n">
-        <v>1397.039440148413</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E38" t="n">
-        <v>1048.036000415257</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F38" t="n">
-        <v>692.3423641188925</v>
+        <v>809.8415093489449</v>
       </c>
       <c r="G38" t="n">
-        <v>348.9508557616723</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H38" t="n">
-        <v>103.3791341393379</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I38" t="n">
-        <v>82.36414720635867</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>336.5496186741129</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>874.7091197831525</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
-        <v>1054.202545866448</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M38" t="n">
-        <v>1830.521136858202</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N38" t="n">
-        <v>2583.70215349682</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O38" t="n">
-        <v>3227.333009913925</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P38" t="n">
-        <v>3756.489707833076</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q38" t="n">
-        <v>4077.650714628368</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R38" t="n">
-        <v>4118.207360317933</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4048.263060861982</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T38" t="n">
-        <v>3891.393352558789</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U38" t="n">
-        <v>3699.669636568246</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V38" t="n">
-        <v>3415.168857654675</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W38" t="n">
-        <v>3096.745332539791</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X38" t="n">
-        <v>2761.438710458691</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y38" t="n">
-        <v>2425.838813156729</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2750.549006353968</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C39" t="n">
-        <v>2616.553935102913</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D39" t="n">
-        <v>2499.656777322306</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E39" t="n">
-        <v>2379.163961314634</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F39" t="n">
-        <v>2270.204081497139</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G39" t="n">
-        <v>2163.213968811478</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H39" t="n">
-        <v>2092.466755847194</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I39" t="n">
-        <v>2071.718164467434</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J39" t="n">
-        <v>2071.718164467434</v>
+        <v>2808.508546243273</v>
       </c>
       <c r="K39" t="n">
-        <v>2527.524420732732</v>
+        <v>3264.314802508572</v>
       </c>
       <c r="L39" t="n">
-        <v>2527.524420732732</v>
+        <v>3925.40297442786</v>
       </c>
       <c r="M39" t="n">
-        <v>2527.524420732732</v>
+        <v>3925.40297442786</v>
       </c>
       <c r="N39" t="n">
-        <v>2527.524420732732</v>
+        <v>3925.40297442786</v>
       </c>
       <c r="O39" t="n">
-        <v>3231.481511278626</v>
+        <v>4282.780900484527</v>
       </c>
       <c r="P39" t="n">
-        <v>3738.80337627132</v>
+        <v>4282.780900484527</v>
       </c>
       <c r="Q39" t="n">
-        <v>4088.647840955303</v>
+        <v>4632.62536516851</v>
       </c>
       <c r="R39" t="n">
-        <v>4118.207360317933</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S39" t="n">
-        <v>4010.217350432242</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T39" t="n">
-        <v>3850.87548661925</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U39" t="n">
-        <v>3653.524675757469</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V39" t="n">
-        <v>3439.813148750503</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W39" t="n">
-        <v>3226.579980486832</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X39" t="n">
-        <v>3050.253998625724</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y39" t="n">
-        <v>2890.852038989554</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>714.3405672578621</v>
+        <v>535.0177515029955</v>
       </c>
       <c r="C40" t="n">
-        <v>608.5839705695262</v>
+        <v>535.0177515029955</v>
       </c>
       <c r="D40" t="n">
-        <v>514.4261016423837</v>
+        <v>535.0177515029955</v>
       </c>
       <c r="E40" t="n">
-        <v>418.8520622606508</v>
+        <v>403.9038472059998</v>
       </c>
       <c r="F40" t="n">
-        <v>319.5577121211896</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="G40" t="n">
-        <v>217.6440967966807</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H40" t="n">
-        <v>133.3734173520849</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I40" t="n">
-        <v>82.36414720635867</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>160.4832705240928</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K40" t="n">
-        <v>379.0721721588544</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L40" t="n">
-        <v>703.0058463514385</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M40" t="n">
-        <v>1056.306476704455</v>
+        <v>927.8555407749237</v>
       </c>
       <c r="N40" t="n">
-        <v>1401.181833011229</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O40" t="n">
-        <v>1724.779017250227</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P40" t="n">
-        <v>1994.491031412363</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q40" t="n">
-        <v>2124.055635127398</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R40" t="n">
-        <v>2104.119692552745</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S40" t="n">
-        <v>1983.064700182603</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T40" t="n">
-        <v>1808.852736909252</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U40" t="n">
-        <v>1591.391365205324</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V40" t="n">
-        <v>1382.842395894793</v>
+        <v>992.8374564650679</v>
       </c>
       <c r="W40" t="n">
-        <v>1169.109507153615</v>
+        <v>743.5647028086272</v>
       </c>
       <c r="X40" t="n">
-        <v>996.1024207632465</v>
+        <v>535.0177515029955</v>
       </c>
       <c r="Y40" t="n">
-        <v>836.7034979019588</v>
+        <v>535.0177515029955</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1575.436314684976</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C41" t="n">
-        <v>1200.851588913508</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D41" t="n">
-        <v>1200.851588913508</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E41" t="n">
-        <v>822.0512383456678</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F41" t="n">
-        <v>436.5606912146181</v>
+        <v>809.8415093489449</v>
       </c>
       <c r="G41" t="n">
-        <v>63.3722720227131</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H41" t="n">
-        <v>63.3722720227131</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I41" t="n">
-        <v>63.3722720227131</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>317.5577434904674</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K41" t="n">
-        <v>855.7172445995069</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L41" t="n">
-        <v>855.7172445995069</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>1632.035835591261</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>2385.216852229879</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>3028.847708646984</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>3028.847708646984</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>3128.05695544609</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>3168.613601135655</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>3068.872390845018</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T41" t="n">
-        <v>3028.838406436203</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U41" t="n">
-        <v>3028.838406436203</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V41" t="n">
-        <v>3028.838406436203</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W41" t="n">
-        <v>2680.617970486634</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X41" t="n">
-        <v>2315.514437570849</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y41" t="n">
-        <v>1950.117629434202</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>742.2031139092476</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>608.2080426581932</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>491.3108848775856</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>370.8180688699136</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>261.8581890524182</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>154.8680763667569</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>84.12086340247292</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>63.3722720227131</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>256.1851295853463</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>256.1851295853463</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L42" t="n">
-        <v>621.6725110462445</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M42" t="n">
-        <v>1405.904377327319</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N42" t="n">
-        <v>1405.904377327319</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O42" t="n">
-        <v>2109.861467873213</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
-        <v>2109.861467873213</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q42" t="n">
-        <v>2109.861467873213</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
-        <v>2109.861467873213</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>2001.871457987522</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1842.529594174531</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1645.178783312749</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1431.467256305783</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1218.234088042112</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1041.908106181004</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>882.5061465448342</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>636.6630342347958</v>
+        <v>591.7722620716814</v>
       </c>
       <c r="C43" t="n">
-        <v>636.6630342347958</v>
+        <v>450.4758004680828</v>
       </c>
       <c r="D43" t="n">
-        <v>512.7082544729685</v>
+        <v>450.4758004680828</v>
       </c>
       <c r="E43" t="n">
-        <v>387.3373042565507</v>
+        <v>450.4758004680828</v>
       </c>
       <c r="F43" t="n">
-        <v>258.2460432824048</v>
+        <v>315.6415854133589</v>
       </c>
       <c r="G43" t="n">
-        <v>258.2460432824048</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H43" t="n">
-        <v>144.1784530031242</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I43" t="n">
-        <v>63.3722720227131</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>112.2874430313726</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K43" t="n">
-        <v>301.6723923570596</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L43" t="n">
-        <v>596.4021142405692</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M43" t="n">
-        <v>920.4987922845114</v>
+        <v>927.8555407749237</v>
       </c>
       <c r="N43" t="n">
-        <v>1236.170196282211</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O43" t="n">
-        <v>1530.563428212134</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P43" t="n">
-        <v>1771.071490065195</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q43" t="n">
-        <v>1871.432141471155</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R43" t="n">
-        <v>1821.699288061818</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S43" t="n">
-        <v>1670.847384856991</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T43" t="n">
-        <v>1466.838510748956</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U43" t="n">
-        <v>1219.580228210342</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="V43" t="n">
-        <v>981.2343480651269</v>
+        <v>1402.433550369664</v>
       </c>
       <c r="W43" t="n">
-        <v>981.2343480651269</v>
+        <v>1153.160796713223</v>
       </c>
       <c r="X43" t="n">
-        <v>978.0187094095498</v>
+        <v>944.6138454075914</v>
       </c>
       <c r="Y43" t="n">
-        <v>788.8228757135773</v>
+        <v>749.675057631041</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1179.393192810943</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C44" t="n">
-        <v>804.8084670394763</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D44" t="n">
-        <v>804.8084670394763</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E44" t="n">
-        <v>775.0433493784462</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F44" t="n">
-        <v>389.5528022473965</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G44" t="n">
-        <v>389.5528022473965</v>
+        <v>430.910136076463</v>
       </c>
       <c r="H44" t="n">
-        <v>114.1841697903772</v>
+        <v>149.7985495388659</v>
       </c>
       <c r="I44" t="n">
-        <v>63.3722720227131</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>317.5577434904674</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>855.7172445995069</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>1568.308644411745</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>2344.627235403499</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>2344.627235403499</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>2344.627235403499</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>2873.78393332265</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>3128.05695544609</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>3168.613601135655</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>3168.613601135655</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T44" t="n">
-        <v>3168.613601135655</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U44" t="n">
-        <v>2947.092974310428</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V44" t="n">
-        <v>2632.795284562171</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W44" t="n">
-        <v>2284.574848612602</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X44" t="n">
-        <v>1919.471315696817</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y44" t="n">
-        <v>1554.07450756017</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>742.2031139092476</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>608.2080426581932</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>491.3108848775856</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>370.8180688699136</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>261.8581890524182</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>154.8680763667569</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>84.12086340247292</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>63.3722720227131</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>63.3722720227131</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>63.3722720227131</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L45" t="n">
-        <v>724.4604439420013</v>
+        <v>393.5382013723083</v>
       </c>
       <c r="M45" t="n">
-        <v>1508.692310223076</v>
+        <v>1236.515282066875</v>
       </c>
       <c r="N45" t="n">
-        <v>2109.861467873213</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O45" t="n">
-        <v>2109.861467873213</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P45" t="n">
-        <v>2109.861467873213</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q45" t="n">
-        <v>2109.861467873213</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
-        <v>2109.861467873213</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>2001.871457987522</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1842.529594174531</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1645.178783312749</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1431.467256305783</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1218.234088042112</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1041.908106181004</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>882.5061465448342</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>512.7082544729685</v>
+        <v>3300.265656172212</v>
       </c>
       <c r="C46" t="n">
-        <v>512.7082544729685</v>
+        <v>3300.265656172212</v>
       </c>
       <c r="D46" t="n">
-        <v>512.7082544729685</v>
+        <v>3300.265656172212</v>
       </c>
       <c r="E46" t="n">
-        <v>387.3373042565507</v>
+        <v>3291.252609092046</v>
       </c>
       <c r="F46" t="n">
-        <v>258.2460432824048</v>
+        <v>3156.418394037322</v>
       </c>
       <c r="G46" t="n">
-        <v>258.2460432824048</v>
+        <v>3018.964913797551</v>
       </c>
       <c r="H46" t="n">
-        <v>144.1784530031242</v>
+        <v>2899.154369437692</v>
       </c>
       <c r="I46" t="n">
-        <v>63.3722720227131</v>
+        <v>2899.154369437692</v>
       </c>
       <c r="J46" t="n">
-        <v>112.2874430313726</v>
+        <v>2942.440871151978</v>
       </c>
       <c r="K46" t="n">
-        <v>301.6723923570596</v>
+        <v>3126.19715118329</v>
       </c>
       <c r="L46" t="n">
-        <v>596.4021142405692</v>
+        <v>3415.298203772425</v>
       </c>
       <c r="M46" t="n">
-        <v>920.4987922845114</v>
+        <v>3733.766212521994</v>
       </c>
       <c r="N46" t="n">
-        <v>1236.170196282211</v>
+        <v>4043.808947225319</v>
       </c>
       <c r="O46" t="n">
-        <v>1530.563428212134</v>
+        <v>4332.573509860867</v>
       </c>
       <c r="P46" t="n">
-        <v>1771.071490065195</v>
+        <v>4567.452902419554</v>
       </c>
       <c r="Q46" t="n">
-        <v>1871.432141471155</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R46" t="n">
-        <v>1821.699288061818</v>
+        <v>4606.709077041224</v>
       </c>
       <c r="S46" t="n">
-        <v>1670.847384856991</v>
+        <v>4450.114219755819</v>
       </c>
       <c r="T46" t="n">
-        <v>1466.838510748956</v>
+        <v>4450.114219755819</v>
       </c>
       <c r="U46" t="n">
-        <v>1219.580228210342</v>
+        <v>4197.112983136628</v>
       </c>
       <c r="V46" t="n">
-        <v>981.2343480651269</v>
+        <v>3953.024148910835</v>
       </c>
       <c r="W46" t="n">
-        <v>737.7045484892641</v>
+        <v>3703.751395254394</v>
       </c>
       <c r="X46" t="n">
-        <v>701.904088168941</v>
+        <v>3495.204443948762</v>
       </c>
       <c r="Y46" t="n">
-        <v>512.7082544729685</v>
+        <v>3300.265656172212</v>
       </c>
     </row>
   </sheetData>
@@ -7979,25 +7981,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M2" t="n">
-        <v>169.9599452705676</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>483.0650705068362</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>483.8021430311011</v>
+        <v>236.0668064756412</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8055,22 +8057,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>72.38002271790189</v>
       </c>
       <c r="K3" t="n">
-        <v>445.9785625348323</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>244.1092848557653</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>443.3461731439669</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>447.9042587502169</v>
       </c>
       <c r="P3" t="n">
         <v>444.4124147530206</v>
@@ -8079,7 +8081,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8137,7 +8139,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K4" t="n">
-        <v>208.363831904762</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L4" t="n">
         <v>317.1506174091142</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>479.289169423434</v>
+        <v>607.2646173786295</v>
       </c>
       <c r="L5" t="n">
-        <v>172.155118876367</v>
+        <v>613.6136257682573</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>611.4184521624579</v>
       </c>
       <c r="N5" t="n">
-        <v>483.0650705068362</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>266.4380597706315</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>445.9785625348323</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>446.2673035610659</v>
+        <v>551.1575635101551</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>571.3216210991624</v>
       </c>
       <c r="O6" t="n">
-        <v>432.1405100734405</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8377,7 +8379,7 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L7" t="n">
-        <v>317.1506174091145</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M7" t="n">
         <v>348.4508580952379</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>479.289169423434</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>553.1935596277625</v>
       </c>
       <c r="P8" t="n">
-        <v>277.0331152529795</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>446.2673035610659</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>447.7170634886343</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
         <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>444.4124147530206</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>206.4630870275083</v>
+        <v>67.39425105392553</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8690,10 +8692,10 @@
         <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>95.48539806284482</v>
+        <v>317.7581978334117</v>
       </c>
       <c r="M11" t="n">
         <v>877.4504173780091</v>
@@ -8708,10 +8710,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>199.3389053981362</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,19 +8768,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>560.7155587704844</v>
       </c>
       <c r="M12" t="n">
-        <v>396.8853565649508</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>845.3467936776638</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
         <v>768.8192472281761</v>
@@ -8790,7 +8792,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,10 +8929,10 @@
         <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>239.4077994495401</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
         <v>877.4504173780091</v>
@@ -8942,7 +8944,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>628.1510783507341</v>
+        <v>455.0396427506486</v>
       </c>
       <c r="Q14" t="n">
         <v>90.03380439915205</v>
@@ -9003,19 +9005,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>171.6011059808123</v>
       </c>
       <c r="K15" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>197.7527798381153</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
         <v>768.8192472281761</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>632.7318453389136</v>
+        <v>94.24904359250789</v>
       </c>
       <c r="L17" t="n">
         <v>815.2746908024792</v>
@@ -9182,10 +9184,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>173.6753702816465</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>123.485697492898</v>
+        <v>174.140909451111</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9407,7 +9409,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M20" t="n">
-        <v>877.4504173780091</v>
+        <v>338.9676156316031</v>
       </c>
       <c r="N20" t="n">
         <v>853.701196452193</v>
@@ -9419,7 +9421,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q20" t="n">
-        <v>132.7090615043082</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
         <v>128.2784515920617</v>
@@ -9477,19 +9479,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>741.5205988334645</v>
       </c>
       <c r="O21" t="n">
         <v>768.8192472281761</v>
@@ -9498,7 +9500,7 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>366.533191279996</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9717,22 +9719,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>527.9363279870925</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>252.3183802122873</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9960,13 +9962,13 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>429.1692081600164</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>429.3564034215989</v>
       </c>
       <c r="P27" t="n">
         <v>621.6393243851574</v>
@@ -10191,28 +10193,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>164.3931020967894</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
         <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>445.1055394667395</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10364,10 +10366,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P32" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q32" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10431,19 +10433,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>560.7155587704847</v>
       </c>
       <c r="M33" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>841.9067396726143</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
@@ -10583,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>73.32359133330795</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K35" t="n">
-        <v>351.002045075088</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L35" t="n">
         <v>815.2746908024792</v>
@@ -10671,22 +10673,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>177.79615091923</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>322.8042452836261</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10828,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L38" t="n">
-        <v>276.7918890560726</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M38" t="n">
         <v>877.4504173780091</v>
@@ -10841,7 +10843,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R38" t="n">
         <v>128.2784515920617</v>
@@ -10899,13 +10901,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
         <v>57.56428373841742</v>
@@ -10914,10 +10916,10 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>418.7392830976435</v>
       </c>
       <c r="P39" t="n">
-        <v>566.7059632782517</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
@@ -11057,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
         <v>877.4504173780091</v>
@@ -11075,10 +11077,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>190.2451648022895</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11136,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>425.2936970036755</v>
+        <v>712.2489309321196</v>
       </c>
       <c r="M42" t="n">
-        <v>849.7176840223311</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11306,16 +11308,16 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>346.8752408874749</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11373,19 +11375,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>164.6818431230231</v>
       </c>
       <c r="M45" t="n">
-        <v>849.7176840223311</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>660.4349667777273</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
@@ -11397,7 +11399,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23258,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>341.3399367874144</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>335.7358826154219</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23312,10 +23314,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>189.8064788306369</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>54.41356692517374</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23495,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>341.3399367874144</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>239.9983350975841</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>339.957593273648</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S28" t="n">
-        <v>155.0289087125508</v>
+        <v>88.58751329334221</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>87.70372102210092</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y28" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24886,16 +24888,16 @@
         <v>54.92104941501636</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U31" t="n">
-        <v>102.4874020398655</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>241.6479458835353</v>
+        <v>174.4415292029077</v>
       </c>
       <c r="W31" t="n">
         <v>246.7800261198764</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25123,16 +25125,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T34" t="n">
         <v>207.6543099067269</v>
       </c>
       <c r="U34" t="n">
-        <v>142.7435414469395</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>246.7800261198764</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>73.03881101415813</v>
       </c>
     </row>
     <row r="35">
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>18.14425617671648</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>30.22840751059239</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>54.92104941501631</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="41">
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>365.2348243417599</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>272.6149461324491</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>50.30377878998743</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,13 +25681,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>145.166308381772</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3054205569749</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>311.154712850774</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25786,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>134.1979724477905</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3934208976019</v>
+        <v>120.2011192185042</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>54.92104941501631</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>241.0945015801042</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>197.592474983782</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25868,16 +25870,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>365.2348243417599</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>345.5448805777423</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>369.456534999986</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25913,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>98.74379818773001</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>184.7999529464996</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>150.6382430639938</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C46" t="n">
-        <v>134.1979724477905</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D46" t="n">
-        <v>122.7152319642089</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>120.8798486446614</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3934208976019</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>85.68364371037907</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>165.3335015356835</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>553157.6314135692</v>
+        <v>565521.8694398506</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>553157.6314135692</v>
+        <v>565902.0791925626</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>527926.3059027308</v>
+        <v>597892.4993489225</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>527926.3059027309</v>
+        <v>597892.4993489225</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>597892.4993489225</v>
+        <v>591366.2807322978</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>597892.4993489225</v>
+        <v>591366.2807322979</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>488850.9929284282</v>
+        <v>591366.2807322979</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>488850.9929284281</v>
+        <v>591366.2807322979</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>651529.5721298279</v>
       </c>
       <c r="D2" t="n">
+        <v>651529.5721298283</v>
+      </c>
+      <c r="E2" t="n">
+        <v>651529.5721298284</v>
+      </c>
+      <c r="F2" t="n">
+        <v>651529.5721298285</v>
+      </c>
+      <c r="G2" t="n">
+        <v>651529.5721298289</v>
+      </c>
+      <c r="H2" t="n">
+        <v>651529.5721298287</v>
+      </c>
+      <c r="I2" t="n">
         <v>651529.5721298279</v>
-      </c>
-      <c r="E2" t="n">
-        <v>578194.4212632007</v>
-      </c>
-      <c r="F2" t="n">
-        <v>578194.4212631998</v>
-      </c>
-      <c r="G2" t="n">
-        <v>651529.5721298285</v>
-      </c>
-      <c r="H2" t="n">
-        <v>651529.5721298285</v>
-      </c>
-      <c r="I2" t="n">
-        <v>651529.5721298285</v>
       </c>
       <c r="J2" t="n">
         <v>631397.7523692574</v>
       </c>
       <c r="K2" t="n">
+        <v>631397.7523692572</v>
+      </c>
+      <c r="L2" t="n">
+        <v>631397.7523692575</v>
+      </c>
+      <c r="M2" t="n">
+        <v>631397.7523692575</v>
+      </c>
+      <c r="N2" t="n">
+        <v>631397.7523692573</v>
+      </c>
+      <c r="O2" t="n">
+        <v>631397.7523692575</v>
+      </c>
+      <c r="P2" t="n">
         <v>631397.7523692574</v>
-      </c>
-      <c r="L2" t="n">
-        <v>631397.7523692574</v>
-      </c>
-      <c r="M2" t="n">
-        <v>651529.5721298291</v>
-      </c>
-      <c r="N2" t="n">
-        <v>651529.5721298283</v>
-      </c>
-      <c r="O2" t="n">
-        <v>526094.003964129</v>
-      </c>
-      <c r="P2" t="n">
-        <v>526094.0039641293</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>130749.1700082319</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>41345.11576204233</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1222.435491908768</v>
       </c>
       <c r="E3" t="n">
-        <v>171775.2676716687</v>
+        <v>203271.5589872691</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>65067.35137136873</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>161262.4011223461</v>
+        <v>161262.4011223462</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>32936.78508933277</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>995.9998103296092</v>
       </c>
       <c r="M3" t="n">
-        <v>94437.3919163606</v>
+        <v>126468.1067646758</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>23599.1533810704</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,22 +26420,22 @@
         <v>255180.0220455301</v>
       </c>
       <c r="C4" t="n">
-        <v>255180.0220455301</v>
+        <v>233053.6734055599</v>
       </c>
       <c r="D4" t="n">
-        <v>255180.0220455301</v>
+        <v>232373.2713033891</v>
       </c>
       <c r="E4" t="n">
-        <v>160207.6281564385</v>
+        <v>175284.6946798805</v>
       </c>
       <c r="F4" t="n">
-        <v>160207.6281564385</v>
+        <v>175284.6946798805</v>
       </c>
       <c r="G4" t="n">
-        <v>175284.6946798806</v>
+        <v>175284.6946798805</v>
       </c>
       <c r="H4" t="n">
-        <v>175284.6946798806</v>
+        <v>175284.6946798805</v>
       </c>
       <c r="I4" t="n">
         <v>175284.6946798806</v>
@@ -26448,16 +26450,16 @@
         <v>148366.1238023682</v>
       </c>
       <c r="M4" t="n">
-        <v>175284.6946798806</v>
+        <v>148366.1238023682</v>
       </c>
       <c r="N4" t="n">
-        <v>175284.6946798805</v>
+        <v>148366.1238023682</v>
       </c>
       <c r="O4" t="n">
-        <v>130397.5987395695</v>
+        <v>148366.1238023682</v>
       </c>
       <c r="P4" t="n">
-        <v>130397.5987395696</v>
+        <v>148366.1238023682</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>57348.88900881319</v>
       </c>
       <c r="C5" t="n">
-        <v>57348.88900881319</v>
+        <v>65129.79624448907</v>
       </c>
       <c r="D5" t="n">
-        <v>57348.88900881319</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>53600.79616377908</v>
+        <v>68034.62130334972</v>
       </c>
       <c r="F5" t="n">
-        <v>53600.79616377909</v>
+        <v>68034.62130334972</v>
       </c>
       <c r="G5" t="n">
         <v>68034.62130334972</v>
@@ -26500,16 +26502,16 @@
         <v>73345.15677686482</v>
       </c>
       <c r="M5" t="n">
-        <v>68034.62130334972</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="N5" t="n">
-        <v>68034.6213033497</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="O5" t="n">
-        <v>51120.84963178756</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="P5" t="n">
-        <v>51120.84963178756</v>
+        <v>73345.15677686484</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>208251.4910672529</v>
       </c>
       <c r="C6" t="n">
-        <v>339000.6610754846</v>
+        <v>312000.9867177366</v>
       </c>
       <c r="D6" t="n">
-        <v>339000.6610754846</v>
+        <v>352564.8002560329</v>
       </c>
       <c r="E6" t="n">
-        <v>192610.7292713145</v>
+        <v>204938.6971593291</v>
       </c>
       <c r="F6" t="n">
-        <v>364385.9969429822</v>
+        <v>408210.2561465983</v>
       </c>
       <c r="G6" t="n">
-        <v>343142.9047752295</v>
+        <v>408210.2561465986</v>
       </c>
       <c r="H6" t="n">
-        <v>408210.2561465982</v>
+        <v>408210.2561465985</v>
       </c>
       <c r="I6" t="n">
-        <v>408210.2561465982</v>
+        <v>408210.2561465976</v>
       </c>
       <c r="J6" t="n">
-        <v>248424.0706676782</v>
+        <v>248424.0706676781</v>
       </c>
       <c r="K6" t="n">
+        <v>376749.6867006914</v>
+      </c>
+      <c r="L6" t="n">
+        <v>408690.4719796948</v>
+      </c>
+      <c r="M6" t="n">
+        <v>283218.3650253486</v>
+      </c>
+      <c r="N6" t="n">
+        <v>409686.4717900242</v>
+      </c>
+      <c r="O6" t="n">
+        <v>386087.3184089541</v>
+      </c>
+      <c r="P6" t="n">
         <v>409686.4717900243</v>
-      </c>
-      <c r="L6" t="n">
-        <v>409686.4717900244</v>
-      </c>
-      <c r="M6" t="n">
-        <v>313772.8642302382</v>
-      </c>
-      <c r="N6" t="n">
-        <v>408210.256146598</v>
-      </c>
-      <c r="O6" t="n">
-        <v>344575.5555927719</v>
-      </c>
-      <c r="P6" t="n">
-        <v>344575.5555927721</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="F2" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="G2" t="n">
         <v>64.68340799244811</v>
@@ -26704,10 +26706,10 @@
         <v>64.68340799244811</v>
       </c>
       <c r="I2" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K2" t="n">
         <v>29.49894172633799</v>
@@ -26716,16 +26718,16 @@
         <v>29.49894172633799</v>
       </c>
       <c r="M2" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N2" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="O2" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="P2" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="3">
@@ -26790,16 +26792,16 @@
         <v>390.1527797502169</v>
       </c>
       <c r="C4" t="n">
-        <v>390.1527797502169</v>
+        <v>518.1282277054124</v>
       </c>
       <c r="D4" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>792.1534002839138</v>
+        <v>1029.551840079484</v>
       </c>
       <c r="F4" t="n">
-        <v>792.1534002839139</v>
+        <v>1029.551840079484</v>
       </c>
       <c r="G4" t="n">
         <v>1029.551840079484</v>
@@ -26820,16 +26822,16 @@
         <v>1165.546221132785</v>
       </c>
       <c r="M4" t="n">
-        <v>1029.551840079484</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="N4" t="n">
-        <v>1029.551840079483</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>792.1534002839137</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>792.1534002839137</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26940,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.18446626611014</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27012,19 +27014,19 @@
         <v>390.1527797502169</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>127.9754479551956</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3.935342664613103</v>
       </c>
       <c r="E4" t="n">
-        <v>402.0006205336969</v>
+        <v>507.488269709458</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>237.3984397955697</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>526.1471608035183</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>127.9754479551956</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>3.93534266461316</v>
       </c>
       <c r="M4" t="n">
-        <v>266.0062394803955</v>
+        <v>507.4882697094581</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>390.1527797502169</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>127.9754479551956</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>3.935342664613103</v>
       </c>
       <c r="M4" t="n">
-        <v>402.0006205336969</v>
+        <v>507.488269709458</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>237.3984397955697</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>15.87056502964566</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>53.66851524207834</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>26.66732817563241</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>14.48822151587922</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -27445,7 +27447,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>82.08040499849363</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27455,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>69.77181015563846</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27467,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27476,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27512,16 +27514,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>184.1604481903512</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27537,19 +27539,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>145.4815158241593</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>6.053093292749452</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27618,7 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>59.69186002194078</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27628,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>14.48822151587922</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>6.484184102520089</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>355.644667421896</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>90.47625035225806</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27701,19 +27703,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>15.27227781283051</v>
       </c>
       <c r="H6" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27752,7 +27754,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>129.9402243513998</v>
+        <v>130.9513356833402</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,13 +27827,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
@@ -27840,7 +27842,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.96618811762767</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27865,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>92.71936103066759</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27918,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>79.52145554827894</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.774526571173908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27938,7 +27940,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27980,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -27998,7 +28000,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>146.8213962936928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28011,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -28026,7 +28028,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>42.00589803888222</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,7 +28070,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>43.66248763732071</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="C11" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="D11" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="E11" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="F11" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="G11" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="H11" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="T11" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="U11" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="V11" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="W11" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="X11" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="Y11" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="C13" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="D13" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="E13" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="F13" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="G13" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="H13" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="J13" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="K13" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="L13" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="M13" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="N13" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="O13" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="P13" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="R13" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="S13" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="T13" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="U13" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="V13" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="W13" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="X13" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="Y13" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="C14" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="D14" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="E14" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="F14" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="G14" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="H14" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="T14" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="U14" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="V14" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="W14" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="X14" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="Y14" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="C16" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="D16" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="E16" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="F16" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="G16" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="H16" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="J16" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="K16" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="L16" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="M16" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="N16" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="O16" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="P16" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="R16" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="S16" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="T16" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="U16" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="V16" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="W16" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="X16" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="Y16" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
     </row>
     <row r="17">
@@ -28612,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244791</v>
       </c>
       <c r="T17" t="n">
         <v>64.68340799244811</v>
@@ -28983,7 +28985,7 @@
         <v>64.68340799244811</v>
       </c>
       <c r="K22" t="n">
-        <v>64.68340799244822</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="L22" t="n">
         <v>64.68340799244811</v>
@@ -29035,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="C23" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="D23" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="E23" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="F23" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="G23" t="n">
-        <v>64.68340799244794</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="H23" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="I23" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="T23" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="U23" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="V23" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244822</v>
       </c>
       <c r="W23" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="X23" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="Y23" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="C25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="D25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="E25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="F25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="G25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="H25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="I25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="J25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="K25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="L25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="M25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="N25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="O25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="P25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="R25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="S25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="T25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="U25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="V25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="W25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="X25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="Y25" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244812</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="29">
@@ -29752,7 +29754,7 @@
         <v>29.49894172633799</v>
       </c>
       <c r="D32" t="n">
-        <v>29.49894172633736</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E32" t="n">
         <v>29.49894172633799</v>
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C35" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D35" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E35" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F35" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G35" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H35" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I35" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T35" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U35" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V35" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W35" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X35" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y35" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C37" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D37" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E37" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F37" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G37" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H37" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I37" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J37" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K37" t="n">
-        <v>64.68340799244777</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L37" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M37" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N37" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O37" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P37" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R37" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S37" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T37" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U37" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V37" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W37" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X37" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y37" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C38" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D38" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E38" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F38" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G38" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H38" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I38" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T38" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U38" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V38" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W38" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X38" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y38" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C40" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D40" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E40" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F40" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G40" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H40" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I40" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J40" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="K40" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="L40" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="M40" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="N40" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="O40" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="P40" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="R40" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="S40" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T40" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U40" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V40" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W40" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X40" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y40" t="n">
-        <v>64.68340799244812</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C41" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D41" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E41" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F41" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G41" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H41" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I41" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T41" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U41" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V41" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W41" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X41" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C43" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D43" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E43" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F43" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G43" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H43" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I43" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J43" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="K43" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="L43" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="M43" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="N43" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="O43" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="P43" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="R43" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="S43" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T43" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U43" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V43" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W43" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X43" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C44" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D44" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E44" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F44" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G44" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H44" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I44" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T44" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U44" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V44" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W44" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X44" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="C46" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="D46" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="E46" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="F46" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="G46" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="H46" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="I46" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="J46" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="K46" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="L46" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="M46" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="N46" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="O46" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="P46" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="R46" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="S46" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="T46" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="U46" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="V46" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="W46" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="X46" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.18446626611014</v>
+        <v>29.49894172633803</v>
       </c>
     </row>
   </sheetData>
@@ -34699,25 +34701,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M2" t="n">
-        <v>76.66972081352215</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>390.1527797502169</v>
+        <v>142.4174431947571</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34775,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>21.01078391790188</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>186.5450011173479</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P3" t="n">
         <v>390.1527797502169</v>
@@ -34799,7 +34801,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34857,7 +34859,7 @@
         <v>14.22479737900053</v>
       </c>
       <c r="K4" t="n">
-        <v>156.1134623456952</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L4" t="n">
         <v>262.5223235152127</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>390.1527797502169</v>
+        <v>518.1282277054124</v>
       </c>
       <c r="L5" t="n">
-        <v>76.66972081352215</v>
+        <v>518.1282277054124</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>518.1282277054124</v>
       </c>
       <c r="N5" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>172.7886964897474</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>390.1527797502169</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>390.1527797502169</v>
+        <v>495.0430396993061</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>518.1282277054124</v>
       </c>
       <c r="O6" t="n">
-        <v>374.3890310734405</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35097,7 +35099,7 @@
         <v>156.1134623456949</v>
       </c>
       <c r="L7" t="n">
-        <v>262.522323515213</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M7" t="n">
         <v>292.1859155964578</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="P8" t="n">
-        <v>183.3837519720954</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>149.7704685226696</v>
+        <v>10.70163254908682</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35410,10 +35412,10 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>222.2727997705669</v>
       </c>
       <c r="M11" t="n">
         <v>784.1601929209636</v>
@@ -35428,10 +35430,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>109.3051009989841</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>504.6010349596354</v>
       </c>
       <c r="M12" t="n">
-        <v>339.3210728265334</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>792.1534002839138</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>711.0677682281761</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,10 +35649,10 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>150.2714097763229</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
         <v>784.1601929209636</v>
@@ -35662,7 +35664,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>534.50171506985</v>
+        <v>361.3902794697644</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35723,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.760462184478</v>
+        <v>120.2318671808123</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>140.1884960996979</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
         <v>711.0677682281761</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>543.5954556656965</v>
+        <v>5.112653919290765</v>
       </c>
       <c r="L17" t="n">
         <v>719.7892927396343</v>
@@ -35902,10 +35904,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>83.64156588249439</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>70.29230409914798</v>
+        <v>120.947516057361</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36127,7 +36129,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M20" t="n">
-        <v>784.1601929209636</v>
+        <v>245.6773911745577</v>
       </c>
       <c r="N20" t="n">
         <v>760.7889056955737</v>
@@ -36139,7 +36141,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q20" t="n">
-        <v>42.6752571051561</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
         <v>40.9663087773382</v>
@@ -36197,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>688.3272054397146</v>
       </c>
       <c r="O21" t="n">
         <v>711.0677682281761</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>309.8405727751573</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36281,7 @@
         <v>78.90820537144864</v>
       </c>
       <c r="K22" t="n">
-        <v>220.7968703381432</v>
+        <v>220.796870338143</v>
       </c>
       <c r="L22" t="n">
         <v>327.2057315076608</v>
@@ -36437,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>474.7429345933425</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>198.0587452094835</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>371.6049244215989</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>567.3796893823536</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.72373910533851</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K28" t="n">
         <v>185.6124040720329</v>
@@ -36771,7 +36773,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>108.567319312174</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>390.8459044639358</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37084,10 +37086,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P32" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q32" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
         <v>40.9663087773382</v>
@@ -37151,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>504.6010349596356</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>788.7133462788644</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37303,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K35" t="n">
-        <v>261.8656554018709</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L35" t="n">
         <v>719.7892927396343</v>
@@ -37391,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>120.2318671808126</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>265.0527662836261</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.90820537144864</v>
+        <v>43.72373910533852</v>
       </c>
       <c r="K37" t="n">
-        <v>220.7968703381427</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L37" t="n">
-        <v>327.2057315076608</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M37" t="n">
-        <v>356.869323588906</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N37" t="n">
-        <v>348.3589457644181</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O37" t="n">
-        <v>326.8658426656543</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P37" t="n">
-        <v>272.4363779415515</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q37" t="n">
-        <v>130.8733370858934</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37548,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L38" t="n">
-        <v>181.3064909932278</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M38" t="n">
         <v>784.1601929209636</v>
@@ -37561,7 +37563,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R38" t="n">
         <v>40.9663087773382</v>
@@ -37619,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37634,10 +37636,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>360.9878040976435</v>
       </c>
       <c r="P39" t="n">
-        <v>512.446328275448</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>353.3782471555388</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.90820537144864</v>
+        <v>43.72373910533855</v>
       </c>
       <c r="K40" t="n">
-        <v>220.796870338143</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L40" t="n">
-        <v>327.2057315076608</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M40" t="n">
-        <v>356.869323588906</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N40" t="n">
-        <v>348.3589457644181</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O40" t="n">
-        <v>326.8658426656543</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P40" t="n">
-        <v>272.4363779415515</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q40" t="n">
-        <v>130.8733370858934</v>
+        <v>95.68887081978332</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
         <v>784.1601929209636</v>
@@ -37795,10 +37797,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>100.2113604031374</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>369.1791731928265</v>
+        <v>656.1344071212706</v>
       </c>
       <c r="M42" t="n">
-        <v>792.1534002839137</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>49.40926364511066</v>
+        <v>43.72373910533855</v>
       </c>
       <c r="K43" t="n">
-        <v>191.297928611805</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L43" t="n">
-        <v>297.7067897813228</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M43" t="n">
-        <v>327.370381862568</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N43" t="n">
-        <v>318.8600040380801</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O43" t="n">
-        <v>297.3669009393163</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P43" t="n">
-        <v>242.9374362152136</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q43" t="n">
-        <v>101.3743953595554</v>
+        <v>95.68887081978332</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38026,16 +38028,16 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>256.8414364883229</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38093,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>108.567319312174</v>
       </c>
       <c r="M45" t="n">
-        <v>792.1534002839137</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
-        <v>607.2415733839773</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>49.40926364511066</v>
+        <v>43.72373910533855</v>
       </c>
       <c r="K46" t="n">
-        <v>191.297928611805</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L46" t="n">
-        <v>297.7067897813228</v>
+        <v>292.0212652415507</v>
       </c>
       <c r="M46" t="n">
-        <v>327.370381862568</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N46" t="n">
-        <v>318.8600040380801</v>
+        <v>313.174479498308</v>
       </c>
       <c r="O46" t="n">
-        <v>297.3669009393163</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P46" t="n">
-        <v>242.9374362152136</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q46" t="n">
-        <v>101.3743953595554</v>
+        <v>95.68887081978332</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_8_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2815543.854815776</v>
+        <v>2815089.662230591</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6436744.570497635</v>
+        <v>6436744.570497633</v>
       </c>
     </row>
     <row r="8">
@@ -664,22 +664,22 @@
         <v>390.1527797502169</v>
       </c>
       <c r="D2" t="n">
-        <v>346.7507753657917</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>390.1527797502169</v>
+        <v>101.2909831003592</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
         <v>115.7281862028015</v>
@@ -758,7 +758,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
-        <v>26.94038839068334</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>122.6791835200027</v>
       </c>
       <c r="Y3" t="n">
         <v>157.8079400398083</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>28.6575444971091</v>
       </c>
       <c r="C4" t="n">
-        <v>23.90092288974135</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>4.641001266096112</v>
@@ -916,7 +916,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>19.33215918226103</v>
       </c>
       <c r="Y5" t="n">
-        <v>41.28263889949475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -986,10 +986,10 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F6" t="n">
-        <v>107.8702810193205</v>
+        <v>92.5980032064882</v>
       </c>
       <c r="G6" t="n">
-        <v>90.64793374597417</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H6" t="n">
         <v>70.03974083464111</v>
@@ -1062,7 +1062,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
@@ -1071,7 +1071,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>17.16004495925772</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>13.88126300749879</v>
       </c>
     </row>
     <row r="8">
@@ -1135,10 +1135,10 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>366.2634782926028</v>
       </c>
       <c r="E8" t="n">
         <v>10.19681332827224</v>
@@ -1150,7 +1150,7 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>317.115508304458</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>154.4670785596584</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>227.4843999725526</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>243.1160044061111</v>
       </c>
       <c r="I11" t="n">
-        <v>20.80483706364946</v>
+        <v>20.80483706364963</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>215.286757986889</v>
       </c>
       <c r="V13" t="n">
-        <v>206.4634796174248</v>
+        <v>206.4634796174252</v>
       </c>
       <c r="W13" t="n">
         <v>211.5955598537662</v>
@@ -1669,7 +1669,7 @@
         <v>281.655771124436</v>
       </c>
       <c r="W14" t="n">
-        <v>315.2392898637351</v>
+        <v>315.239289863735</v>
       </c>
       <c r="X14" t="n">
         <v>331.9535558602889</v>
@@ -1770,7 +1770,7 @@
         <v>104.6990307214525</v>
       </c>
       <c r="D16" t="n">
-        <v>93.21629023787179</v>
+        <v>93.21629023787096</v>
       </c>
       <c r="E16" t="n">
         <v>94.61829898791561</v>
@@ -1815,7 +1815,7 @@
         <v>19.73658314890623</v>
       </c>
       <c r="S16" t="n">
-        <v>119.8444424464407</v>
+        <v>119.8444424464405</v>
       </c>
       <c r="T16" t="n">
         <v>172.4698436406168</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.24485646139223</v>
+        <v>69.24485646139203</v>
       </c>
       <c r="T17" t="n">
         <v>155.3010112201617</v>
@@ -2022,7 +2022,7 @@
         <v>83.4279726501498</v>
       </c>
       <c r="I19" t="n">
-        <v>50.49917744426846</v>
+        <v>50.49917744426899</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>19.73658314890623</v>
       </c>
       <c r="S19" t="n">
-        <v>119.8444424464407</v>
+        <v>119.8444424464405</v>
       </c>
       <c r="T19" t="n">
         <v>172.4698436406168</v>
@@ -2253,7 +2253,7 @@
         <v>98.30140663806654</v>
       </c>
       <c r="G22" t="n">
-        <v>100.8944791712639</v>
+        <v>100.8944791712634</v>
       </c>
       <c r="H22" t="n">
         <v>83.4279726501498</v>
@@ -2289,7 +2289,7 @@
         <v>19.73658314890623</v>
       </c>
       <c r="S22" t="n">
-        <v>119.8444424464405</v>
+        <v>119.8444424464407</v>
       </c>
       <c r="T22" t="n">
         <v>172.4698436406168</v>
@@ -2338,7 +2338,7 @@
         <v>243.1160044061111</v>
       </c>
       <c r="I23" t="n">
-        <v>20.80483706364944</v>
+        <v>20.80483706364946</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.24485646139202</v>
+        <v>69.24485646139203</v>
       </c>
       <c r="T23" t="n">
-        <v>155.3010112201616</v>
+        <v>155.3010112201617</v>
       </c>
       <c r="U23" t="n">
         <v>189.8064788306369</v>
@@ -2481,22 +2481,22 @@
         <v>104.6990307214525</v>
       </c>
       <c r="D25" t="n">
-        <v>93.21629023787095</v>
+        <v>93.21629023787096</v>
       </c>
       <c r="E25" t="n">
-        <v>94.61829898791559</v>
+        <v>94.61829898791561</v>
       </c>
       <c r="F25" t="n">
-        <v>98.30140663806652</v>
+        <v>98.30140663806654</v>
       </c>
       <c r="G25" t="n">
         <v>100.8944791712639</v>
       </c>
       <c r="H25" t="n">
-        <v>83.42797265014978</v>
+        <v>83.4279726501498</v>
       </c>
       <c r="I25" t="n">
-        <v>50.49917744426898</v>
+        <v>50.49917744426846</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>19.73658314890622</v>
+        <v>19.73658314890623</v>
       </c>
       <c r="S25" t="n">
         <v>119.8444424464407</v>
@@ -2575,7 +2575,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I26" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2715,22 +2715,22 @@
         <v>156.323767603766</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D28" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>48.95623799525475</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G28" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>66.44139541920863</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>250.4712242529991</v>
@@ -2778,7 +2778,7 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y28" t="n">
         <v>192.9893998987849</v>
@@ -2970,7 +2970,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I31" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V31" t="n">
-        <v>67.2064166806276</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>206.4614817925755</v>
+        <v>117.7035963000467</v>
       </c>
       <c r="Y31" t="n">
         <v>192.9893998987849</v>
@@ -3049,7 +3049,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I32" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C34" t="n">
         <v>139.8834969875627</v>
@@ -3201,13 +3201,13 @@
         <v>133.4858729041767</v>
       </c>
       <c r="G34" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>241.6479458835353</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>165.9334988611052</v>
       </c>
       <c r="X34" t="n">
         <v>206.4614817925755</v>
       </c>
       <c r="Y34" t="n">
-        <v>119.9505888846268</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="35">
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C35" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D35" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E35" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F35" t="n">
         <v>387.3211661995113</v>
@@ -3283,10 +3283,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H35" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I35" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T35" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U35" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V35" t="n">
         <v>316.8402373905461</v>
@@ -3331,7 +3331,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X35" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y35" t="n">
         <v>367.4283645950528</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>156.323767603766</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C37" t="n">
-        <v>139.8834969875627</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D37" t="n">
-        <v>128.4007565039811</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E37" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F37" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I37" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>189.5100537300104</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W37" t="n">
-        <v>246.7800261198764</v>
+        <v>180.8069328490231</v>
       </c>
       <c r="X37" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y37" t="n">
         <v>192.9893998987849</v>
@@ -3508,7 +3508,7 @@
         <v>376.5244030535245</v>
       </c>
       <c r="D38" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815331</v>
       </c>
       <c r="E38" t="n">
         <v>380.6978716019342</v>
@@ -3523,7 +3523,7 @@
         <v>278.3004706722211</v>
       </c>
       <c r="I38" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>190.4854774862717</v>
       </c>
       <c r="U38" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V38" t="n">
         <v>316.8402373905461</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E40" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F40" t="n">
-        <v>103.2574653935842</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>85.68364371037907</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U40" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V40" t="n">
-        <v>241.6479458835352</v>
+        <v>237.8876260241487</v>
       </c>
       <c r="W40" t="n">
-        <v>246.7800261198763</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>206.4614817925754</v>
@@ -3760,7 +3760,7 @@
         <v>278.3004706722211</v>
       </c>
       <c r="I41" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>190.4854774862717</v>
       </c>
       <c r="U41" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967484</v>
       </c>
       <c r="V41" t="n">
         <v>316.8402373905461</v>
@@ -3900,25 +3900,25 @@
         <v>156.3237676037659</v>
       </c>
       <c r="C43" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F43" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>15.8778262188698</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>85.68364371037907</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T43" t="n">
         <v>207.6543099067269</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V43" t="n">
-        <v>241.6479458835352</v>
+        <v>199.8883264012078</v>
       </c>
       <c r="W43" t="n">
         <v>246.7800261198763</v>
@@ -3997,7 +3997,7 @@
         <v>278.3004706722211</v>
       </c>
       <c r="I44" t="n">
-        <v>55.98930332976064</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>190.4854774862717</v>
       </c>
       <c r="U44" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V44" t="n">
         <v>316.8402373905461</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E46" t="n">
-        <v>8.9229166093643</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F46" t="n">
         <v>133.4858729041766</v>
@@ -4152,7 +4152,7 @@
         <v>136.078945437374</v>
       </c>
       <c r="H46" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>54.92104941501631</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>155.0289087125508</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U46" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>241.6479458835352</v>
@@ -4203,7 +4203,7 @@
         <v>206.4614817925754</v>
       </c>
       <c r="Y46" t="n">
-        <v>192.9893998987849</v>
+        <v>3.735429823924661</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1196.942784117742</v>
+        <v>1419.149268170883</v>
       </c>
       <c r="C2" t="n">
-        <v>802.8490671983307</v>
+        <v>1025.055551251472</v>
       </c>
       <c r="D2" t="n">
-        <v>452.595758748036</v>
+        <v>630.9618343320608</v>
       </c>
       <c r="E2" t="n">
-        <v>442.2959473053368</v>
+        <v>236.8681174126498</v>
       </c>
       <c r="F2" t="n">
-        <v>425.3059392994284</v>
+        <v>219.8781094067414</v>
       </c>
       <c r="G2" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="H2" t="n">
-        <v>31.21222238001735</v>
+        <v>117.5639850629442</v>
       </c>
       <c r="I2" t="n">
         <v>31.21222238001735</v>
@@ -4339,13 +4339,13 @@
         <v>1057.900197753201</v>
       </c>
       <c r="M2" t="n">
-        <v>1057.900197753201</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="N2" t="n">
-        <v>1057.900197753201</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="O2" t="n">
-        <v>1057.900197753201</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="P2" t="n">
         <v>1198.893466516011</v>
@@ -4360,22 +4360,22 @@
         <v>1425.330043794968</v>
       </c>
       <c r="T2" t="n">
-        <v>1203.123559741827</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="U2" t="n">
-        <v>1203.123559741827</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="V2" t="n">
-        <v>1203.123559741827</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="W2" t="n">
-        <v>1203.123559741827</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="X2" t="n">
-        <v>1203.123559741827</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="Y2" t="n">
-        <v>1203.123559741827</v>
+        <v>1425.330043794968</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>555.2994016357376</v>
+        <v>710.0430642665517</v>
       </c>
       <c r="C3" t="n">
-        <v>555.2994016357376</v>
+        <v>576.0479930154975</v>
       </c>
       <c r="D3" t="n">
-        <v>438.40224385513</v>
+        <v>459.1508352348899</v>
       </c>
       <c r="E3" t="n">
-        <v>317.909427847458</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="F3" t="n">
-        <v>208.9495480299626</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G3" t="n">
-        <v>101.9594353443013</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H3" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I3" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J3" t="n">
-        <v>52.01289845874021</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K3" t="n">
-        <v>52.01289845874021</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L3" t="n">
-        <v>52.01289845874021</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M3" t="n">
-        <v>52.01289845874021</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N3" t="n">
-        <v>438.2641504114549</v>
+        <v>996.52758384808</v>
       </c>
       <c r="O3" t="n">
-        <v>824.5154023641696</v>
+        <v>996.52758384808</v>
       </c>
       <c r="P3" t="n">
-        <v>1210.766654316884</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q3" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R3" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S3" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T3" t="n">
-        <v>1293.279245302185</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U3" t="n">
-        <v>1095.928434440403</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V3" t="n">
-        <v>882.216907433437</v>
+        <v>1346.899591993901</v>
       </c>
       <c r="W3" t="n">
-        <v>855.0043939074942</v>
+        <v>1133.66642373023</v>
       </c>
       <c r="X3" t="n">
-        <v>855.0043939074942</v>
+        <v>1009.748056538308</v>
       </c>
       <c r="Y3" t="n">
-        <v>695.6024342713242</v>
+        <v>850.3460969021384</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214.8492134103814</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="C4" t="n">
-        <v>190.7068670571073</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="D4" t="n">
-        <v>31.21222238001735</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="E4" t="n">
-        <v>31.21222238001735</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="F4" t="n">
-        <v>31.21222238001735</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="G4" t="n">
-        <v>31.21222238001735</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="H4" t="n">
-        <v>31.21222238001735</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="I4" t="n">
         <v>31.21222238001735</v>
@@ -4515,25 +4515,25 @@
         <v>1475.338400676267</v>
       </c>
       <c r="S4" t="n">
-        <v>1288.946632556178</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="T4" t="n">
-        <v>1288.946632556178</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="U4" t="n">
-        <v>1006.148485102302</v>
+        <v>1192.540253222391</v>
       </c>
       <c r="V4" t="n">
-        <v>732.2627400418237</v>
+        <v>918.6545081619133</v>
       </c>
       <c r="W4" t="n">
-        <v>453.193075550698</v>
+        <v>639.5848436707877</v>
       </c>
       <c r="X4" t="n">
-        <v>214.8492134103814</v>
+        <v>401.2409815304711</v>
       </c>
       <c r="Y4" t="n">
-        <v>214.8492134103814</v>
+        <v>176.5052829192358</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>794.8845716573517</v>
+        <v>1689.317142421087</v>
       </c>
       <c r="C5" t="n">
-        <v>384.7599809706218</v>
+        <v>1683.232955774761</v>
       </c>
       <c r="D5" t="n">
-        <v>384.3364551040864</v>
+        <v>1278.769025867821</v>
       </c>
       <c r="E5" t="n">
-        <v>374.0366436613871</v>
+        <v>864.428810384718</v>
       </c>
       <c r="F5" t="n">
-        <v>357.0466356554787</v>
+        <v>443.3983983384056</v>
       </c>
       <c r="G5" t="n">
-        <v>352.358755588715</v>
+        <v>438.7105182716418</v>
       </c>
       <c r="H5" t="n">
-        <v>41.45025821643299</v>
+        <v>127.8020208993598</v>
       </c>
       <c r="I5" t="n">
-        <v>41.45025821643299</v>
+        <v>41.45025821643296</v>
       </c>
       <c r="J5" t="n">
-        <v>41.45025821643299</v>
+        <v>41.45025821643296</v>
       </c>
       <c r="K5" t="n">
-        <v>554.3972036447913</v>
+        <v>554.3972036447908</v>
       </c>
       <c r="L5" t="n">
-        <v>1067.34414907315</v>
+        <v>1067.344149073149</v>
       </c>
       <c r="M5" t="n">
-        <v>1580.291094501508</v>
+        <v>1067.344149073149</v>
       </c>
       <c r="N5" t="n">
-        <v>1580.291094501508</v>
+        <v>1067.344149073149</v>
       </c>
       <c r="O5" t="n">
-        <v>1580.291094501508</v>
+        <v>1580.291094501506</v>
       </c>
       <c r="P5" t="n">
-        <v>1751.351904026358</v>
+        <v>1751.351904026356</v>
       </c>
       <c r="Q5" t="n">
-        <v>2072.51291082165</v>
+        <v>2072.512910821648</v>
       </c>
       <c r="R5" t="n">
-        <v>2072.51291082165</v>
+        <v>2072.512910821648</v>
       </c>
       <c r="S5" t="n">
-        <v>2072.51291082165</v>
+        <v>1937.231835615749</v>
       </c>
       <c r="T5" t="n">
-        <v>1850.306426768509</v>
+        <v>1715.025351562608</v>
       </c>
       <c r="U5" t="n">
-        <v>1593.245935028019</v>
+        <v>1715.025351562608</v>
       </c>
       <c r="V5" t="n">
-        <v>1243.408380364499</v>
+        <v>1715.025351562608</v>
       </c>
       <c r="W5" t="n">
-        <v>1243.408380364499</v>
+        <v>1715.025351562608</v>
       </c>
       <c r="X5" t="n">
-        <v>842.764982533452</v>
+        <v>1695.497918045172</v>
       </c>
       <c r="Y5" t="n">
-        <v>801.0653472814371</v>
+        <v>1695.497918045172</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>704.8545568576841</v>
+        <v>704.8545568576823</v>
       </c>
       <c r="C6" t="n">
-        <v>570.8594856066297</v>
+        <v>570.8594856066279</v>
       </c>
       <c r="D6" t="n">
-        <v>453.9623278260221</v>
+        <v>453.9623278260203</v>
       </c>
       <c r="E6" t="n">
-        <v>333.4695118183502</v>
+        <v>333.4695118183483</v>
       </c>
       <c r="F6" t="n">
-        <v>224.5096320008547</v>
+        <v>239.936175246138</v>
       </c>
       <c r="G6" t="n">
-        <v>132.9460625604768</v>
+        <v>132.9460625604767</v>
       </c>
       <c r="H6" t="n">
-        <v>62.19884959619282</v>
+        <v>62.19884959619279</v>
       </c>
       <c r="I6" t="n">
-        <v>41.45025821643299</v>
+        <v>41.45025821643296</v>
       </c>
       <c r="J6" t="n">
-        <v>234.2631157790662</v>
+        <v>41.45025821643296</v>
       </c>
       <c r="K6" t="n">
-        <v>690.069372044365</v>
+        <v>154.268090489961</v>
       </c>
       <c r="L6" t="n">
-        <v>1180.161981346678</v>
+        <v>667.2150359183188</v>
       </c>
       <c r="M6" t="n">
-        <v>1180.161981346678</v>
+        <v>1180.161981346677</v>
       </c>
       <c r="N6" t="n">
-        <v>1693.108926775036</v>
+        <v>1180.161981346677</v>
       </c>
       <c r="O6" t="n">
-        <v>1693.108926775036</v>
+        <v>1693.108926775034</v>
       </c>
       <c r="P6" t="n">
-        <v>1693.108926775036</v>
+        <v>1693.108926775034</v>
       </c>
       <c r="Q6" t="n">
-        <v>2042.95339145902</v>
+        <v>2042.953391459018</v>
       </c>
       <c r="R6" t="n">
-        <v>2072.51291082165</v>
+        <v>2072.512910821648</v>
       </c>
       <c r="S6" t="n">
-        <v>1964.522900935958</v>
+        <v>1964.522900935957</v>
       </c>
       <c r="T6" t="n">
-        <v>1805.181037122967</v>
+        <v>1805.181037122965</v>
       </c>
       <c r="U6" t="n">
-        <v>1607.830226261185</v>
+        <v>1607.830226261183</v>
       </c>
       <c r="V6" t="n">
-        <v>1394.118699254219</v>
+        <v>1394.118699254217</v>
       </c>
       <c r="W6" t="n">
-        <v>1180.885530990548</v>
+        <v>1180.885530990546</v>
       </c>
       <c r="X6" t="n">
-        <v>1004.559549129441</v>
+        <v>1004.559549129439</v>
       </c>
       <c r="Y6" t="n">
-        <v>845.1575894932707</v>
+        <v>845.1575894932689</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1339.262972922437</v>
+        <v>1130.78410851757</v>
       </c>
       <c r="C7" t="n">
-        <v>1168.169600484154</v>
+        <v>959.6907360792861</v>
       </c>
       <c r="D7" t="n">
-        <v>1008.674955807063</v>
+        <v>800.1960914021961</v>
       </c>
       <c r="E7" t="n">
-        <v>1008.674955807063</v>
+        <v>639.2852762705155</v>
       </c>
       <c r="F7" t="n">
-        <v>844.0438299176548</v>
+        <v>474.6541503811068</v>
       </c>
       <c r="G7" t="n">
-        <v>676.7934388431981</v>
+        <v>307.4037593066502</v>
       </c>
       <c r="H7" t="n">
-        <v>659.4600600964732</v>
+        <v>157.7963041121068</v>
       </c>
       <c r="I7" t="n">
-        <v>543.1140142007994</v>
+        <v>41.45025821643296</v>
       </c>
       <c r="J7" t="n">
-        <v>557.1965636060099</v>
+        <v>55.53280762164348</v>
       </c>
       <c r="K7" t="n">
-        <v>711.748891328248</v>
+        <v>210.0851353438815</v>
       </c>
       <c r="L7" t="n">
-        <v>971.6459916083086</v>
+        <v>469.982235623942</v>
       </c>
       <c r="M7" t="n">
-        <v>1260.910048048802</v>
+        <v>759.2462920644352</v>
       </c>
       <c r="N7" t="n">
-        <v>1541.748830443052</v>
+        <v>1040.085074458686</v>
       </c>
       <c r="O7" t="n">
-        <v>1801.309440769526</v>
+        <v>1299.64568478516</v>
       </c>
       <c r="P7" t="n">
-        <v>2006.984881019139</v>
+        <v>1505.321125034772</v>
       </c>
       <c r="Q7" t="n">
-        <v>2072.51291082165</v>
+        <v>1570.849154837283</v>
       </c>
       <c r="R7" t="n">
-        <v>1987.240192497049</v>
+        <v>1570.849154837283</v>
       </c>
       <c r="S7" t="n">
-        <v>1800.848424376959</v>
+        <v>1570.849154837283</v>
       </c>
       <c r="T7" t="n">
-        <v>1800.848424376959</v>
+        <v>1570.849154837283</v>
       </c>
       <c r="U7" t="n">
-        <v>1800.848424376959</v>
+        <v>1570.849154837283</v>
       </c>
       <c r="V7" t="n">
-        <v>1526.962679316481</v>
+        <v>1570.849154837283</v>
       </c>
       <c r="W7" t="n">
-        <v>1526.962679316481</v>
+        <v>1570.849154837283</v>
       </c>
       <c r="X7" t="n">
-        <v>1526.962679316481</v>
+        <v>1332.505292696966</v>
       </c>
       <c r="Y7" t="n">
-        <v>1526.962679316481</v>
+        <v>1318.483814911614</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>881.5511617534476</v>
+        <v>940.1822479010976</v>
       </c>
       <c r="C8" t="n">
-        <v>875.4669751071217</v>
+        <v>530.0576572143677</v>
       </c>
       <c r="D8" t="n">
-        <v>471.0030452001823</v>
+        <v>160.0945478279002</v>
       </c>
       <c r="E8" t="n">
-        <v>460.703233757483</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F8" t="n">
-        <v>443.7132257515746</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G8" t="n">
-        <v>439.0253456848109</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H8" t="n">
         <v>128.1168483125289</v>
@@ -4804,25 +4804,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M8" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N8" t="n">
-        <v>1075.450954962253</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O8" t="n">
-        <v>1530.854701124212</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
         <v>2047.697635790537</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>1608.987305686471</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V8" t="n">
-        <v>1608.987305686471</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W8" t="n">
-        <v>1608.987305686471</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="X8" t="n">
-        <v>1288.668610429443</v>
+        <v>946.3630235251831</v>
       </c>
       <c r="Y8" t="n">
-        <v>887.731937377533</v>
+        <v>946.3630235251831</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>1014.414276561226</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M9" t="n">
-        <v>1531.257211227551</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N9" t="n">
-        <v>2048.100145893876</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O9" t="n">
-        <v>2048.100145893876</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P9" t="n">
-        <v>2048.100145893876</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4989,25 +4989,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1485.891263925851</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T10" t="n">
-        <v>1246.342524902554</v>
+        <v>1143.472143725299</v>
       </c>
       <c r="U10" t="n">
-        <v>963.5443774486778</v>
+        <v>860.673996271423</v>
       </c>
       <c r="V10" t="n">
-        <v>733.7621552541802</v>
+        <v>586.788251210945</v>
       </c>
       <c r="W10" t="n">
-        <v>733.7621552541802</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="X10" t="n">
-        <v>495.4182931138637</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="Y10" t="n">
-        <v>495.4182931138637</v>
+        <v>307.7185867198193</v>
       </c>
     </row>
     <row r="11">
@@ -5026,16 +5026,16 @@
         <v>1397.039440148413</v>
       </c>
       <c r="E11" t="n">
-        <v>1048.036000415257</v>
+        <v>1048.036000415258</v>
       </c>
       <c r="F11" t="n">
-        <v>692.3423641188926</v>
+        <v>692.3423641188928</v>
       </c>
       <c r="G11" t="n">
-        <v>348.9508557616723</v>
+        <v>348.9508557616725</v>
       </c>
       <c r="H11" t="n">
-        <v>103.3791341393379</v>
+        <v>103.3791341393381</v>
       </c>
       <c r="I11" t="n">
         <v>82.36414720635868</v>
@@ -5047,28 +5047,28 @@
         <v>874.7091197831526</v>
       </c>
       <c r="L11" t="n">
-        <v>1094.759191556014</v>
+        <v>1587.300519595391</v>
       </c>
       <c r="M11" t="n">
-        <v>1871.077782547768</v>
+        <v>2151.682143653495</v>
       </c>
       <c r="N11" t="n">
-        <v>2624.258799186386</v>
+        <v>2904.863160292113</v>
       </c>
       <c r="O11" t="n">
-        <v>3267.889655603491</v>
+        <v>3548.494016709218</v>
       </c>
       <c r="P11" t="n">
-        <v>3797.046353522642</v>
+        <v>4077.650714628369</v>
       </c>
       <c r="Q11" t="n">
-        <v>4118.207360317934</v>
+        <v>4077.650714628369</v>
       </c>
       <c r="R11" t="n">
         <v>4118.207360317934</v>
       </c>
       <c r="S11" t="n">
-        <v>4048.263060861983</v>
+        <v>4048.263060861982</v>
       </c>
       <c r="T11" t="n">
         <v>3891.393352558789</v>
@@ -5120,28 +5120,28 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J12" t="n">
-        <v>82.36414720635868</v>
+        <v>275.1770047689919</v>
       </c>
       <c r="K12" t="n">
-        <v>82.36414720635868</v>
+        <v>730.9832610342906</v>
       </c>
       <c r="L12" t="n">
-        <v>581.9191718163977</v>
+        <v>1187.743466521715</v>
       </c>
       <c r="M12" t="n">
-        <v>1424.896252510964</v>
+        <v>1187.743466521715</v>
       </c>
       <c r="N12" t="n">
-        <v>1424.896252510964</v>
+        <v>1187.743466521715</v>
       </c>
       <c r="O12" t="n">
-        <v>2128.853343056859</v>
+        <v>1187.743466521715</v>
       </c>
       <c r="P12" t="n">
-        <v>2128.853343056859</v>
+        <v>1749.449359010245</v>
       </c>
       <c r="Q12" t="n">
-        <v>2128.853343056859</v>
+        <v>2099.293823694229</v>
       </c>
       <c r="R12" t="n">
         <v>2128.853343056859</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>714.3405672578622</v>
+        <v>714.3405672578619</v>
       </c>
       <c r="C13" t="n">
-        <v>608.5839705695263</v>
+        <v>608.5839705695261</v>
       </c>
       <c r="D13" t="n">
-        <v>514.4261016423839</v>
+        <v>514.4261016423837</v>
       </c>
       <c r="E13" t="n">
-        <v>418.8520622606509</v>
+        <v>418.8520622606508</v>
       </c>
       <c r="F13" t="n">
-        <v>319.5577121211897</v>
+        <v>319.5577121211896</v>
       </c>
       <c r="G13" t="n">
-        <v>217.6440967966807</v>
+        <v>217.6440967966806</v>
       </c>
       <c r="H13" t="n">
         <v>133.3734173520849</v>
@@ -5202,16 +5202,16 @@
         <v>160.4832705240929</v>
       </c>
       <c r="K13" t="n">
-        <v>379.0721721588545</v>
+        <v>379.0721721588544</v>
       </c>
       <c r="L13" t="n">
-        <v>703.0058463514387</v>
+        <v>703.0058463514385</v>
       </c>
       <c r="M13" t="n">
-        <v>1056.306476704456</v>
+        <v>1056.306476704455</v>
       </c>
       <c r="N13" t="n">
-        <v>1401.18183301123</v>
+        <v>1401.181833011229</v>
       </c>
       <c r="O13" t="n">
         <v>1724.779017250227</v>
@@ -5229,7 +5229,7 @@
         <v>1983.064700182603</v>
       </c>
       <c r="T13" t="n">
-        <v>1808.852736909252</v>
+        <v>1808.852736909253</v>
       </c>
       <c r="U13" t="n">
         <v>1591.391365205324</v>
@@ -5244,7 +5244,7 @@
         <v>996.1024207632466</v>
       </c>
       <c r="Y13" t="n">
-        <v>836.7034979019589</v>
+        <v>836.7034979019587</v>
       </c>
     </row>
     <row r="14">
@@ -5296,10 +5296,10 @@
         <v>3760.430983642867</v>
       </c>
       <c r="P14" t="n">
-        <v>4118.207360317934</v>
+        <v>4077.650714628369</v>
       </c>
       <c r="Q14" t="n">
-        <v>4118.207360317934</v>
+        <v>4077.650714628369</v>
       </c>
       <c r="R14" t="n">
         <v>4118.207360317934</v>
@@ -5314,16 +5314,16 @@
         <v>3699.669636568247</v>
       </c>
       <c r="V14" t="n">
-        <v>3415.168857654675</v>
+        <v>3415.168857654676</v>
       </c>
       <c r="W14" t="n">
-        <v>3096.745332539791</v>
+        <v>3096.745332539792</v>
       </c>
       <c r="X14" t="n">
         <v>2761.438710458692</v>
       </c>
       <c r="Y14" t="n">
-        <v>2425.838813156729</v>
+        <v>2425.83881315673</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2750.549006353969</v>
+        <v>761.1949890928931</v>
       </c>
       <c r="C15" t="n">
-        <v>2616.553935102914</v>
+        <v>627.1999178418388</v>
       </c>
       <c r="D15" t="n">
-        <v>2499.656777322307</v>
+        <v>510.3027600612312</v>
       </c>
       <c r="E15" t="n">
-        <v>2379.163961314635</v>
+        <v>389.8099440535592</v>
       </c>
       <c r="F15" t="n">
-        <v>2270.20408149714</v>
+        <v>280.8500642360638</v>
       </c>
       <c r="G15" t="n">
-        <v>2163.213968811478</v>
+        <v>173.8599515504025</v>
       </c>
       <c r="H15" t="n">
-        <v>2092.466755847195</v>
+        <v>103.1127385861185</v>
       </c>
       <c r="I15" t="n">
-        <v>2071.718164467435</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J15" t="n">
-        <v>2190.747712976439</v>
+        <v>275.1770047689919</v>
       </c>
       <c r="K15" t="n">
-        <v>2190.747712976439</v>
+        <v>382.6586508880441</v>
       </c>
       <c r="L15" t="n">
-        <v>2190.747712976439</v>
+        <v>382.6586508880441</v>
       </c>
       <c r="M15" t="n">
-        <v>2190.747712976439</v>
+        <v>1225.635731582611</v>
       </c>
       <c r="N15" t="n">
-        <v>3064.405805088057</v>
+        <v>2099.293823694229</v>
       </c>
       <c r="O15" t="n">
-        <v>3768.362895633951</v>
+        <v>2099.293823694229</v>
       </c>
       <c r="P15" t="n">
-        <v>3768.362895633951</v>
+        <v>2099.293823694229</v>
       </c>
       <c r="Q15" t="n">
-        <v>4118.207360317934</v>
+        <v>2099.293823694229</v>
       </c>
       <c r="R15" t="n">
-        <v>4118.207360317934</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="S15" t="n">
-        <v>4010.217350432243</v>
+        <v>2020.863333171168</v>
       </c>
       <c r="T15" t="n">
-        <v>3850.875486619251</v>
+        <v>1861.521469358176</v>
       </c>
       <c r="U15" t="n">
-        <v>3653.52467575747</v>
+        <v>1664.170658496394</v>
       </c>
       <c r="V15" t="n">
-        <v>3439.813148750504</v>
+        <v>1450.459131489428</v>
       </c>
       <c r="W15" t="n">
-        <v>3226.579980486832</v>
+        <v>1237.225963225757</v>
       </c>
       <c r="X15" t="n">
-        <v>3050.253998625725</v>
+        <v>1060.89998136465</v>
       </c>
       <c r="Y15" t="n">
-        <v>2890.852038989555</v>
+        <v>901.4980217284798</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2708.492292448399</v>
+        <v>714.3405672578622</v>
       </c>
       <c r="C16" t="n">
-        <v>2602.735695760063</v>
+        <v>608.5839705695263</v>
       </c>
       <c r="D16" t="n">
-        <v>2508.57782683292</v>
+        <v>514.4261016423839</v>
       </c>
       <c r="E16" t="n">
-        <v>2413.003787451187</v>
+        <v>418.8520622606509</v>
       </c>
       <c r="F16" t="n">
-        <v>2313.709437311726</v>
+        <v>319.5577121211897</v>
       </c>
       <c r="G16" t="n">
-        <v>2211.795821987217</v>
+        <v>217.6440967966807</v>
       </c>
       <c r="H16" t="n">
-        <v>2127.525142542621</v>
+        <v>133.3734173520849</v>
       </c>
       <c r="I16" t="n">
-        <v>2076.515872396895</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J16" t="n">
-        <v>2154.634995714629</v>
+        <v>160.4832705240929</v>
       </c>
       <c r="K16" t="n">
-        <v>2373.223897349391</v>
+        <v>379.0721721588545</v>
       </c>
       <c r="L16" t="n">
-        <v>2697.157571541975</v>
+        <v>703.0058463514387</v>
       </c>
       <c r="M16" t="n">
-        <v>3050.458201894992</v>
+        <v>1056.306476704456</v>
       </c>
       <c r="N16" t="n">
-        <v>3395.333558201766</v>
+        <v>1401.18183301123</v>
       </c>
       <c r="O16" t="n">
-        <v>3718.930742440763</v>
+        <v>1724.779017250227</v>
       </c>
       <c r="P16" t="n">
-        <v>3988.6427566029</v>
+        <v>1994.491031412363</v>
       </c>
       <c r="Q16" t="n">
-        <v>4118.207360317934</v>
+        <v>2124.055635127398</v>
       </c>
       <c r="R16" t="n">
-        <v>4098.271417743282</v>
+        <v>2104.119692552745</v>
       </c>
       <c r="S16" t="n">
-        <v>3977.216425373139</v>
+        <v>1983.064700182603</v>
       </c>
       <c r="T16" t="n">
-        <v>3803.004462099789</v>
+        <v>1808.852736909253</v>
       </c>
       <c r="U16" t="n">
-        <v>3585.543090395861</v>
+        <v>1591.391365205324</v>
       </c>
       <c r="V16" t="n">
-        <v>3376.99412108533</v>
+        <v>1382.842395894794</v>
       </c>
       <c r="W16" t="n">
-        <v>3163.261232344152</v>
+        <v>1169.109507153616</v>
       </c>
       <c r="X16" t="n">
-        <v>2990.254145953783</v>
+        <v>996.1024207632466</v>
       </c>
       <c r="Y16" t="n">
-        <v>2830.855223092496</v>
+        <v>836.7034979019589</v>
       </c>
     </row>
     <row r="17">
@@ -5500,13 +5500,13 @@
         <v>1397.039440148413</v>
       </c>
       <c r="E17" t="n">
-        <v>1048.036000415258</v>
+        <v>1048.036000415257</v>
       </c>
       <c r="F17" t="n">
-        <v>692.3423641188926</v>
+        <v>692.3423641188924</v>
       </c>
       <c r="G17" t="n">
-        <v>348.9508557616724</v>
+        <v>348.9508557616718</v>
       </c>
       <c r="H17" t="n">
         <v>103.3791341393379</v>
@@ -5518,7 +5518,7 @@
         <v>336.549618674113</v>
       </c>
       <c r="K17" t="n">
-        <v>341.6111460542108</v>
+        <v>874.7091197831526</v>
       </c>
       <c r="L17" t="n">
         <v>1054.202545866449</v>
@@ -5542,13 +5542,13 @@
         <v>4118.207360317934</v>
       </c>
       <c r="S17" t="n">
-        <v>4048.263060861982</v>
+        <v>4048.263060861983</v>
       </c>
       <c r="T17" t="n">
         <v>3891.393352558789</v>
       </c>
       <c r="U17" t="n">
-        <v>3699.669636568247</v>
+        <v>3699.669636568246</v>
       </c>
       <c r="V17" t="n">
         <v>3415.168857654675</v>
@@ -5557,7 +5557,7 @@
         <v>3096.745332539791</v>
       </c>
       <c r="X17" t="n">
-        <v>2761.438710458692</v>
+        <v>2761.438710458691</v>
       </c>
       <c r="Y17" t="n">
         <v>2425.838813156729</v>
@@ -5597,25 +5597,25 @@
         <v>82.36414720635868</v>
       </c>
       <c r="K18" t="n">
-        <v>82.36414720635868</v>
+        <v>538.1704034716574</v>
       </c>
       <c r="L18" t="n">
-        <v>743.4523191256469</v>
+        <v>538.1704034716574</v>
       </c>
       <c r="M18" t="n">
-        <v>743.4523191256469</v>
+        <v>538.1704034716574</v>
       </c>
       <c r="N18" t="n">
-        <v>863.1903600224343</v>
+        <v>538.1704034716574</v>
       </c>
       <c r="O18" t="n">
-        <v>1567.147450568329</v>
+        <v>1187.743466521715</v>
       </c>
       <c r="P18" t="n">
-        <v>2128.853343056859</v>
+        <v>1749.449359010245</v>
       </c>
       <c r="Q18" t="n">
-        <v>2128.853343056859</v>
+        <v>2099.293823694229</v>
       </c>
       <c r="R18" t="n">
         <v>2128.853343056859</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>714.3405672578616</v>
+        <v>714.3405672578622</v>
       </c>
       <c r="C19" t="n">
-        <v>608.5839705695257</v>
+        <v>608.5839705695263</v>
       </c>
       <c r="D19" t="n">
-        <v>514.4261016423833</v>
+        <v>514.4261016423839</v>
       </c>
       <c r="E19" t="n">
-        <v>418.8520622606503</v>
+        <v>418.8520622606509</v>
       </c>
       <c r="F19" t="n">
-        <v>319.5577121211892</v>
+        <v>319.5577121211897</v>
       </c>
       <c r="G19" t="n">
-        <v>217.6440967966802</v>
+        <v>217.6440967966807</v>
       </c>
       <c r="H19" t="n">
-        <v>133.3734173520844</v>
+        <v>133.3734173520849</v>
       </c>
       <c r="I19" t="n">
         <v>82.36414720635868</v>
@@ -5703,22 +5703,22 @@
         <v>1983.064700182603</v>
       </c>
       <c r="T19" t="n">
-        <v>1808.852736909252</v>
+        <v>1808.852736909253</v>
       </c>
       <c r="U19" t="n">
         <v>1591.391365205324</v>
       </c>
       <c r="V19" t="n">
-        <v>1382.842395894793</v>
+        <v>1382.842395894794</v>
       </c>
       <c r="W19" t="n">
-        <v>1169.109507153615</v>
+        <v>1169.109507153616</v>
       </c>
       <c r="X19" t="n">
-        <v>996.1024207632461</v>
+        <v>996.1024207632466</v>
       </c>
       <c r="Y19" t="n">
-        <v>836.7034979019584</v>
+        <v>836.7034979019589</v>
       </c>
     </row>
     <row r="20">
@@ -5737,13 +5737,13 @@
         <v>1397.039440148413</v>
       </c>
       <c r="E20" t="n">
-        <v>1048.036000415257</v>
+        <v>1048.036000415258</v>
       </c>
       <c r="F20" t="n">
-        <v>692.3423641188925</v>
+        <v>692.3423641188926</v>
       </c>
       <c r="G20" t="n">
-        <v>348.9508557616723</v>
+        <v>348.9508557616724</v>
       </c>
       <c r="H20" t="n">
         <v>103.3791341393379</v>
@@ -5755,10 +5755,10 @@
         <v>336.549618674113</v>
       </c>
       <c r="K20" t="n">
-        <v>874.7091197831526</v>
+        <v>341.6111460542108</v>
       </c>
       <c r="L20" t="n">
-        <v>1587.300519595391</v>
+        <v>1054.202545866449</v>
       </c>
       <c r="M20" t="n">
         <v>1830.521136858203</v>
@@ -5794,7 +5794,7 @@
         <v>3096.745332539791</v>
       </c>
       <c r="X20" t="n">
-        <v>2761.438710458691</v>
+        <v>2761.438710458692</v>
       </c>
       <c r="Y20" t="n">
         <v>2425.838813156729</v>
@@ -5831,28 +5831,28 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J21" t="n">
-        <v>82.36414720635868</v>
+        <v>275.1770047689919</v>
       </c>
       <c r="K21" t="n">
-        <v>82.36414720635868</v>
+        <v>730.9832610342906</v>
       </c>
       <c r="L21" t="n">
-        <v>743.4523191256469</v>
+        <v>1392.071432953579</v>
       </c>
       <c r="M21" t="n">
-        <v>743.4523191256469</v>
+        <v>1392.071432953579</v>
       </c>
       <c r="N21" t="n">
-        <v>1424.896252510964</v>
+        <v>1392.071432953579</v>
       </c>
       <c r="O21" t="n">
-        <v>2128.853343056859</v>
+        <v>1392.071432953579</v>
       </c>
       <c r="P21" t="n">
-        <v>2128.853343056859</v>
+        <v>1749.449359010245</v>
       </c>
       <c r="Q21" t="n">
-        <v>2128.853343056859</v>
+        <v>2099.293823694229</v>
       </c>
       <c r="R21" t="n">
         <v>2128.853343056859</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>714.3405672578622</v>
+        <v>714.3405672578616</v>
       </c>
       <c r="C22" t="n">
-        <v>608.5839705695263</v>
+        <v>608.5839705695257</v>
       </c>
       <c r="D22" t="n">
-        <v>514.4261016423839</v>
+        <v>514.4261016423833</v>
       </c>
       <c r="E22" t="n">
-        <v>418.8520622606509</v>
+        <v>418.8520622606503</v>
       </c>
       <c r="F22" t="n">
-        <v>319.5577121211897</v>
+        <v>319.5577121211892</v>
       </c>
       <c r="G22" t="n">
         <v>217.6440967966807</v>
@@ -5940,22 +5940,22 @@
         <v>1983.064700182603</v>
       </c>
       <c r="T22" t="n">
-        <v>1808.852736909253</v>
+        <v>1808.852736909252</v>
       </c>
       <c r="U22" t="n">
         <v>1591.391365205324</v>
       </c>
       <c r="V22" t="n">
-        <v>1382.842395894794</v>
+        <v>1382.842395894793</v>
       </c>
       <c r="W22" t="n">
-        <v>1169.109507153616</v>
+        <v>1169.109507153615</v>
       </c>
       <c r="X22" t="n">
-        <v>996.1024207632466</v>
+        <v>996.1024207632461</v>
       </c>
       <c r="Y22" t="n">
-        <v>836.7034979019589</v>
+        <v>836.7034979019584</v>
       </c>
     </row>
     <row r="23">
@@ -5992,13 +5992,13 @@
         <v>336.549618674113</v>
       </c>
       <c r="K23" t="n">
-        <v>341.6111460542108</v>
+        <v>874.7091197831526</v>
       </c>
       <c r="L23" t="n">
-        <v>1054.202545866449</v>
+        <v>1587.300519595391</v>
       </c>
       <c r="M23" t="n">
-        <v>1830.521136858203</v>
+        <v>2363.619110587144</v>
       </c>
       <c r="N23" t="n">
         <v>2583.702153496821</v>
@@ -6068,25 +6068,25 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J24" t="n">
-        <v>82.36414720635868</v>
+        <v>275.1770047689919</v>
       </c>
       <c r="K24" t="n">
-        <v>538.1704034716574</v>
+        <v>730.9832610342906</v>
       </c>
       <c r="L24" t="n">
-        <v>1199.258575390946</v>
+        <v>1187.743466521715</v>
       </c>
       <c r="M24" t="n">
-        <v>1199.258575390946</v>
+        <v>1187.743466521715</v>
       </c>
       <c r="N24" t="n">
-        <v>1199.258575390946</v>
+        <v>1187.743466521715</v>
       </c>
       <c r="O24" t="n">
-        <v>1903.21566593684</v>
+        <v>1187.743466521715</v>
       </c>
       <c r="P24" t="n">
-        <v>2099.293823694229</v>
+        <v>1749.449359010245</v>
       </c>
       <c r="Q24" t="n">
         <v>2099.293823694229</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2708.492292448399</v>
+        <v>714.3405672578616</v>
       </c>
       <c r="C25" t="n">
-        <v>2602.735695760062</v>
+        <v>608.5839705695257</v>
       </c>
       <c r="D25" t="n">
-        <v>2508.57782683292</v>
+        <v>514.4261016423833</v>
       </c>
       <c r="E25" t="n">
-        <v>2413.003787451187</v>
+        <v>418.8520622606503</v>
       </c>
       <c r="F25" t="n">
-        <v>2313.709437311726</v>
+        <v>319.5577121211892</v>
       </c>
       <c r="G25" t="n">
-        <v>2211.795821987217</v>
+        <v>217.6440967966802</v>
       </c>
       <c r="H25" t="n">
-        <v>2127.525142542621</v>
+        <v>133.3734173520844</v>
       </c>
       <c r="I25" t="n">
-        <v>2076.515872396895</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="J25" t="n">
-        <v>2154.634995714629</v>
+        <v>160.4832705240929</v>
       </c>
       <c r="K25" t="n">
-        <v>2373.223897349391</v>
+        <v>379.0721721588545</v>
       </c>
       <c r="L25" t="n">
-        <v>2697.157571541975</v>
+        <v>703.0058463514387</v>
       </c>
       <c r="M25" t="n">
-        <v>3050.458201894992</v>
+        <v>1056.306476704456</v>
       </c>
       <c r="N25" t="n">
-        <v>3395.333558201766</v>
+        <v>1401.18183301123</v>
       </c>
       <c r="O25" t="n">
-        <v>3718.930742440763</v>
+        <v>1724.779017250227</v>
       </c>
       <c r="P25" t="n">
-        <v>3988.6427566029</v>
+        <v>1994.491031412363</v>
       </c>
       <c r="Q25" t="n">
-        <v>4118.207360317934</v>
+        <v>2124.055635127398</v>
       </c>
       <c r="R25" t="n">
-        <v>4098.271417743281</v>
+        <v>2104.119692552745</v>
       </c>
       <c r="S25" t="n">
-        <v>3977.216425373139</v>
+        <v>1983.064700182603</v>
       </c>
       <c r="T25" t="n">
-        <v>3803.004462099789</v>
+        <v>1808.852736909252</v>
       </c>
       <c r="U25" t="n">
-        <v>3585.54309039586</v>
+        <v>1591.391365205324</v>
       </c>
       <c r="V25" t="n">
-        <v>3376.99412108533</v>
+        <v>1382.842395894793</v>
       </c>
       <c r="W25" t="n">
-        <v>3163.261232344152</v>
+        <v>1169.109507153615</v>
       </c>
       <c r="X25" t="n">
-        <v>2990.254145953783</v>
+        <v>996.1024207632461</v>
       </c>
       <c r="Y25" t="n">
-        <v>2830.855223092495</v>
+        <v>836.7034979019584</v>
       </c>
     </row>
     <row r="26">
@@ -6208,28 +6208,28 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D26" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E26" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F26" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G26" t="n">
-        <v>430.9101360764621</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H26" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6241,7 +6241,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O26" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P26" t="n">
         <v>4300.467232046283</v>
@@ -6256,22 +6256,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T26" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U26" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V26" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W26" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X26" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y26" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>1210.13812587521</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.13812587521</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N27" t="n">
-        <v>1210.13812587521</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O27" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>480.2054561326582</v>
+        <v>548.5228536411028</v>
       </c>
       <c r="C28" t="n">
-        <v>480.2054561326582</v>
+        <v>407.2263920375041</v>
       </c>
       <c r="D28" t="n">
-        <v>350.5077222902531</v>
+        <v>277.528658195099</v>
       </c>
       <c r="E28" t="n">
-        <v>350.5077222902531</v>
+        <v>228.0779127453467</v>
       </c>
       <c r="F28" t="n">
-        <v>350.5077222902531</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>213.0542420504813</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
         <v>93.2436976906228</v>
@@ -6411,25 +6411,25 @@
         <v>1856.27421278407</v>
       </c>
       <c r="S28" t="n">
-        <v>1789.161692158606</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T28" t="n">
-        <v>1579.409863969993</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="U28" t="n">
-        <v>1326.408627350802</v>
+        <v>1603.272976164879</v>
       </c>
       <c r="V28" t="n">
-        <v>1082.319793125009</v>
+        <v>1359.184141939085</v>
       </c>
       <c r="W28" t="n">
-        <v>833.0470394685683</v>
+        <v>1109.911388282645</v>
       </c>
       <c r="X28" t="n">
-        <v>833.0470394685683</v>
+        <v>901.3644369770128</v>
       </c>
       <c r="Y28" t="n">
-        <v>638.1082516920178</v>
+        <v>706.4256492004623</v>
       </c>
     </row>
     <row r="29">
@@ -6448,13 +6448,13 @@
         <v>1585.618315208991</v>
       </c>
       <c r="E29" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489446</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G29" t="n">
-        <v>430.9101360764616</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H29" t="n">
         <v>149.7985495388648</v>
@@ -6493,13 +6493,13 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T29" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U29" t="n">
         <v>4137.027566035664</v>
       </c>
       <c r="V29" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W29" t="n">
         <v>3463.023532176683</v>
@@ -6508,7 +6508,7 @@
         <v>3092.17704518032</v>
       </c>
       <c r="Y29" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="30">
@@ -6548,22 +6548,22 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>1402.950983437843</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M30" t="n">
-        <v>1402.950983437843</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N30" t="n">
-        <v>1402.950983437843</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
-        <v>1402.950983437843</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>973.9991721489654</v>
+        <v>887.4500370879764</v>
       </c>
       <c r="C31" t="n">
-        <v>832.7027105453667</v>
+        <v>746.1535754843777</v>
       </c>
       <c r="D31" t="n">
-        <v>703.0049767029616</v>
+        <v>616.4558416419726</v>
       </c>
       <c r="E31" t="n">
-        <v>571.8910724059659</v>
+        <v>485.3419373449769</v>
       </c>
       <c r="F31" t="n">
-        <v>437.0568573512421</v>
+        <v>350.5077222902531</v>
       </c>
       <c r="G31" t="n">
-        <v>299.6033771114703</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="H31" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6657,16 +6657,16 @@
         <v>1603.272976164879</v>
       </c>
       <c r="V31" t="n">
-        <v>1535.387706790507</v>
+        <v>1359.184141939085</v>
       </c>
       <c r="W31" t="n">
-        <v>1535.387706790507</v>
+        <v>1359.184141939085</v>
       </c>
       <c r="X31" t="n">
-        <v>1326.840755484875</v>
+        <v>1240.291620423887</v>
       </c>
       <c r="Y31" t="n">
-        <v>1131.901967708325</v>
+        <v>1045.352832647336</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F32" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489452</v>
       </c>
       <c r="G32" t="n">
-        <v>430.9101360764621</v>
+        <v>430.9101360764622</v>
       </c>
       <c r="H32" t="n">
         <v>149.7985495388648</v>
@@ -6700,10 +6700,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K32" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6715,7 +6715,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O32" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P32" t="n">
         <v>4300.467232046283</v>
@@ -6730,13 +6730,13 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T32" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U32" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V32" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W32" t="n">
         <v>3463.023532176683</v>
@@ -6745,7 +6745,7 @@
         <v>3092.17704518032</v>
       </c>
       <c r="Y32" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C33" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D33" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E33" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G33" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H33" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>2615.69568868064</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>3115.250713290679</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M33" t="n">
-        <v>3958.227793985246</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>3958.227793985246</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>4662.18488453114</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>4662.18488453114</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S33" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T33" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U33" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V33" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W33" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X33" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y33" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>973.9991721489654</v>
+        <v>630.1860124883461</v>
       </c>
       <c r="C34" t="n">
-        <v>832.7027105453667</v>
+        <v>488.8895508847475</v>
       </c>
       <c r="D34" t="n">
-        <v>703.0049767029616</v>
+        <v>359.1918170423423</v>
       </c>
       <c r="E34" t="n">
-        <v>571.8910724059659</v>
+        <v>228.0779127453467</v>
       </c>
       <c r="F34" t="n">
-        <v>437.0568573512421</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>299.6033771114703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6882,28 +6882,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R34" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S34" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T34" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="U34" t="n">
-        <v>1547.797168674963</v>
+        <v>1603.272976164879</v>
       </c>
       <c r="V34" t="n">
-        <v>1303.70833444917</v>
+        <v>1359.184141939085</v>
       </c>
       <c r="W34" t="n">
-        <v>1303.70833444917</v>
+        <v>1191.574547129888</v>
       </c>
       <c r="X34" t="n">
-        <v>1095.161383143538</v>
+        <v>983.0275958242562</v>
       </c>
       <c r="Y34" t="n">
-        <v>973.9991721489654</v>
+        <v>788.0888080477057</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C35" t="n">
         <v>1960.285334281245</v>
       </c>
       <c r="D35" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.61831520899</v>
       </c>
       <c r="E35" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F35" t="n">
-        <v>809.8415093489455</v>
+        <v>809.8415093489446</v>
       </c>
       <c r="G35" t="n">
-        <v>430.9101360764625</v>
+        <v>430.9101360764616</v>
       </c>
       <c r="H35" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
         <v>885.5886702674168</v>
@@ -6970,19 +6970,19 @@
         <v>4364.291146941468</v>
       </c>
       <c r="U35" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035663</v>
       </c>
       <c r="V35" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206828</v>
       </c>
       <c r="W35" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X35" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180319</v>
       </c>
       <c r="Y35" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963094</v>
       </c>
     </row>
     <row r="36">
@@ -7022,19 +7022,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M36" t="n">
-        <v>212.2732461996272</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N36" t="n">
-        <v>1085.931338311245</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O36" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P36" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>854.1886277891069</v>
+        <v>615.1623417934806</v>
       </c>
       <c r="C37" t="n">
-        <v>712.8921661855082</v>
+        <v>473.865880189882</v>
       </c>
       <c r="D37" t="n">
-        <v>583.1944323431031</v>
+        <v>344.1681463474769</v>
       </c>
       <c r="E37" t="n">
-        <v>452.0805280461075</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="F37" t="n">
-        <v>317.2463129913835</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="G37" t="n">
-        <v>179.7928327516118</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="H37" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K37" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L37" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M37" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N37" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O37" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P37" t="n">
         <v>1761.542230672484</v>
@@ -7125,22 +7125,22 @@
         <v>1856.27421278407</v>
       </c>
       <c r="T37" t="n">
-        <v>1664.849916087089</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="U37" t="n">
-        <v>1664.849916087089</v>
+        <v>1603.272976164879</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.849916087089</v>
+        <v>1359.184141939086</v>
       </c>
       <c r="W37" t="n">
-        <v>1415.577162430649</v>
+        <v>1176.550876435022</v>
       </c>
       <c r="X37" t="n">
-        <v>1207.030211125017</v>
+        <v>968.0039251293905</v>
       </c>
       <c r="Y37" t="n">
-        <v>1012.091423348466</v>
+        <v>773.0651373528401</v>
       </c>
     </row>
     <row r="38">
@@ -7153,22 +7153,22 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C38" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D38" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E38" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F38" t="n">
-        <v>809.8415093489449</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G38" t="n">
         <v>430.9101360764619</v>
       </c>
       <c r="H38" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7204,22 +7204,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T38" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U38" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V38" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W38" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X38" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y38" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C39" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D39" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E39" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F39" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G39" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H39" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I39" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>2808.508546243273</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>3264.314802508572</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>3925.40297442786</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M39" t="n">
-        <v>3925.40297442786</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N39" t="n">
-        <v>3925.40297442786</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O39" t="n">
-        <v>4282.780900484527</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
-        <v>4282.780900484527</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>4632.62536516851</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S39" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T39" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U39" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V39" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W39" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X39" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y39" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>535.0177515029955</v>
+        <v>630.1860124883459</v>
       </c>
       <c r="C40" t="n">
-        <v>535.0177515029955</v>
+        <v>488.8895508847473</v>
       </c>
       <c r="D40" t="n">
-        <v>535.0177515029955</v>
+        <v>359.1918170423422</v>
       </c>
       <c r="E40" t="n">
-        <v>403.9038472059998</v>
+        <v>228.0779127453466</v>
       </c>
       <c r="F40" t="n">
-        <v>299.6033771114703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>299.6033771114703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7338,10 +7338,10 @@
         <v>320.2864794362206</v>
       </c>
       <c r="L40" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M40" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N40" t="n">
         <v>1237.898275478249</v>
@@ -7368,16 +7368,16 @@
         <v>1236.926290690861</v>
       </c>
       <c r="V40" t="n">
-        <v>992.8374564650679</v>
+        <v>996.6357593533372</v>
       </c>
       <c r="W40" t="n">
-        <v>743.5647028086272</v>
+        <v>996.6357593533372</v>
       </c>
       <c r="X40" t="n">
-        <v>535.0177515029955</v>
+        <v>788.0888080477055</v>
       </c>
       <c r="Y40" t="n">
-        <v>535.0177515029955</v>
+        <v>788.0888080477055</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C41" t="n">
         <v>1960.285334281245</v>
@@ -7396,25 +7396,25 @@
         <v>1585.618315208991</v>
       </c>
       <c r="E41" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F41" t="n">
-        <v>809.8415093489449</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G41" t="n">
         <v>430.9101360764619</v>
       </c>
       <c r="H41" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7441,16 +7441,16 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T41" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U41" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035663</v>
       </c>
       <c r="V41" t="n">
         <v>3816.986922206829</v>
       </c>
       <c r="W41" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X41" t="n">
         <v>3092.17704518032</v>
@@ -7490,10 +7490,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
         <v>1198.623017005979</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>591.7722620716814</v>
+        <v>224.3576019876184</v>
       </c>
       <c r="C43" t="n">
-        <v>450.4758004680828</v>
+        <v>224.3576019876184</v>
       </c>
       <c r="D43" t="n">
-        <v>450.4758004680828</v>
+        <v>224.3576019876184</v>
       </c>
       <c r="E43" t="n">
-        <v>450.4758004680828</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
-        <v>315.6415854133589</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>299.6033771114703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
         <v>93.2436976906228</v>
@@ -7575,10 +7575,10 @@
         <v>320.2864794362206</v>
       </c>
       <c r="L43" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M43" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N43" t="n">
         <v>1237.898275478249</v>
@@ -7596,25 +7596,25 @@
         <v>1856.27421278407</v>
       </c>
       <c r="S43" t="n">
-        <v>1856.27421278407</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T43" t="n">
-        <v>1646.522384595457</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U43" t="n">
-        <v>1646.522384595457</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V43" t="n">
-        <v>1402.433550369664</v>
+        <v>1035.018890285601</v>
       </c>
       <c r="W43" t="n">
-        <v>1153.160796713223</v>
+        <v>785.7461366291601</v>
       </c>
       <c r="X43" t="n">
-        <v>944.6138454075914</v>
+        <v>577.1991853235284</v>
       </c>
       <c r="Y43" t="n">
-        <v>749.675057631041</v>
+        <v>382.2603975469779</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F44" t="n">
-        <v>809.8415093489459</v>
+        <v>809.8415093489457</v>
       </c>
       <c r="G44" t="n">
-        <v>430.910136076463</v>
+        <v>430.9101360764625</v>
       </c>
       <c r="H44" t="n">
-        <v>149.7985495388659</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K44" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L44" t="n">
         <v>1598.180070079655</v>
@@ -7663,7 +7663,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P44" t="n">
         <v>4300.467232046283</v>
@@ -7681,16 +7681,16 @@
         <v>4364.291146941469</v>
       </c>
       <c r="U44" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V44" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W44" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X44" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y44" t="n">
         <v>2721.037282963096</v>
@@ -7730,22 +7730,22 @@
         <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>393.5382013723083</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M45" t="n">
-        <v>1236.515282066875</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N45" t="n">
-        <v>2110.173374178493</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O45" t="n">
-        <v>2110.173374178493</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P45" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q45" t="n">
         <v>2110.173374178493</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3300.265656172212</v>
+        <v>626.3430311245191</v>
       </c>
       <c r="C46" t="n">
-        <v>3300.265656172212</v>
+        <v>626.3430311245191</v>
       </c>
       <c r="D46" t="n">
-        <v>3300.265656172212</v>
+        <v>496.645297282114</v>
       </c>
       <c r="E46" t="n">
-        <v>3291.252609092046</v>
+        <v>365.5313929851184</v>
       </c>
       <c r="F46" t="n">
-        <v>3156.418394037322</v>
+        <v>230.6971779303945</v>
       </c>
       <c r="G46" t="n">
-        <v>3018.964913797551</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>2899.154369437692</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>2899.154369437692</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>2942.440871151978</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K46" t="n">
-        <v>3126.19715118329</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L46" t="n">
-        <v>3415.298203772425</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M46" t="n">
-        <v>3733.766212521994</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N46" t="n">
-        <v>4043.808947225319</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O46" t="n">
-        <v>4332.573509860867</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P46" t="n">
-        <v>4567.452902419554</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q46" t="n">
-        <v>4662.18488453114</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R46" t="n">
-        <v>4606.709077041224</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S46" t="n">
-        <v>4450.114219755819</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T46" t="n">
-        <v>4450.114219755819</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U46" t="n">
-        <v>4197.112983136628</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="V46" t="n">
-        <v>3953.024148910835</v>
+        <v>1245.838693084259</v>
       </c>
       <c r="W46" t="n">
-        <v>3703.751395254394</v>
+        <v>996.5659394278182</v>
       </c>
       <c r="X46" t="n">
-        <v>3495.204443948762</v>
+        <v>788.0189881221864</v>
       </c>
       <c r="Y46" t="n">
-        <v>3300.265656172212</v>
+        <v>784.2458266838787</v>
       </c>
     </row>
   </sheetData>
@@ -7987,7 +7987,7 @@
         <v>485.6381778130617</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>235.7076676518025</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
@@ -7996,7 +7996,7 @@
         <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>236.0668064756412</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8057,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>72.38002271790189</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M3" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>444.4124147530206</v>
+        <v>240.8046361201516</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,22 +8218,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>607.2646173786295</v>
+        <v>607.2646173786291</v>
       </c>
       <c r="L5" t="n">
-        <v>613.6136257682573</v>
+        <v>613.6136257682568</v>
       </c>
       <c r="M5" t="n">
-        <v>611.4184521624579</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>611.3180033311951</v>
       </c>
       <c r="P5" t="n">
-        <v>266.4380597706315</v>
+        <v>266.4380597706311</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
@@ -8294,22 +8294,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>169.7831891215124</v>
       </c>
       <c r="L6" t="n">
-        <v>551.1575635101551</v>
+        <v>574.242751516261</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>575.6925114438294</v>
       </c>
       <c r="N6" t="n">
-        <v>571.3216210991624</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>575.879706705412</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>553.1935596277625</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8531,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>564.4415429491208</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>67.39425105392553</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8695,10 +8695,10 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>317.7581978334117</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>877.4504173780091</v>
+        <v>663.372673000585</v>
       </c>
       <c r="N11" t="n">
         <v>853.701196452193</v>
@@ -8710,10 +8710,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>560.7155587704844</v>
+        <v>517.4884687476415</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8944,13 +8944,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>455.0396427506486</v>
+        <v>414.0733339733104</v>
       </c>
       <c r="Q14" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>171.6011059808123</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>164.3931020967893</v>
       </c>
       <c r="L15" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,10 +9166,10 @@
         <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>94.24904359250789</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L17" t="n">
-        <v>815.2746908024792</v>
+        <v>276.7918890560734</v>
       </c>
       <c r="M17" t="n">
         <v>877.4504173780091</v>
@@ -9245,28 +9245,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>174.140909451111</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>713.8858861212705</v>
       </c>
       <c r="P18" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,13 +9403,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7318453389136</v>
+        <v>94.24904359250789</v>
       </c>
       <c r="L20" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M20" t="n">
-        <v>338.9676156316031</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N20" t="n">
         <v>853.701196452193</v>
@@ -9479,10 +9479,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
         <v>723.8803540323523</v>
@@ -9491,19 +9491,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>741.5205988334645</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>415.2474391004463</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>94.24904359250789</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L23" t="n">
         <v>815.2746908024792</v>
@@ -9649,7 +9649,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N23" t="n">
-        <v>853.701196452193</v>
+        <v>315.2183947057874</v>
       </c>
       <c r="O23" t="n">
         <v>743.321953824879</v>
@@ -9716,13 +9716,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476415</v>
       </c>
       <c r="M24" t="n">
         <v>57.56428373841742</v>
@@ -9731,13 +9731,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>252.3183802122873</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>88.85829947169823</v>
@@ -9953,13 +9953,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
         <v>57.56428373841742</v>
@@ -9968,16 +9968,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>429.3564034215989</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P27" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
@@ -10208,13 +10208,13 @@
         <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>445.1055394667395</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P32" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q32" t="n">
         <v>414.4388617681339</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>560.7155587704847</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>518.93822867521</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L35" t="n">
         <v>815.2746908024792</v>
@@ -10670,13 +10670,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>177.79615091923</v>
+        <v>745.8914891781321</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
         <v>768.8192472281761</v>
@@ -10685,7 +10685,7 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10831,7 +10831,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M38" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N38" t="n">
         <v>853.701196452193</v>
@@ -10843,7 +10843,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
         <v>128.2784515920617</v>
@@ -10907,7 +10907,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
         <v>57.56428373841742</v>
@@ -10916,10 +10916,10 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>418.7392830976435</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11068,7 +11068,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N41" t="n">
         <v>853.701196452193</v>
@@ -11138,13 +11138,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>712.2489309321196</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
@@ -11378,25 +11378,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>164.6818431230231</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>129.8027652540257</v>
+        <v>80.84652725877098</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S28" t="n">
-        <v>88.58751329334221</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>174.4415292029077</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>246.7800261198764</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>88.75788549252873</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S34" t="n">
         <v>155.0289087125508</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>246.7800261198764</v>
+        <v>80.84652725877112</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>73.03881101415813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H37" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.92104941501636</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S37" t="n">
         <v>155.0289087125508</v>
       </c>
       <c r="T37" t="n">
-        <v>18.14425617671648</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U37" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>65.97309327085324</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>30.22840751059239</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.92104941501631</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>3.760319859386527</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D43" t="n">
-        <v>128.4007565039811</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E43" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G43" t="n">
-        <v>120.2011192185042</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>54.92104941501631</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S43" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>41.75961948232739</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>139.8834969875626</v>
       </c>
       <c r="D46" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>120.8798486446614</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I46" t="n">
-        <v>85.68364371037907</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>189.2539700748602</v>
       </c>
     </row>
   </sheetData>
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>591366.2807322978</v>
+        <v>591366.2807322979</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>591366.2807322979</v>
+        <v>591366.2807322978</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>591366.2807322979</v>
+        <v>591366.2807322978</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>651529.5721298279</v>
+      </c>
+      <c r="C2" t="n">
         <v>651529.5721298282</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>651529.5721298279</v>
       </c>
-      <c r="D2" t="n">
-        <v>651529.5721298283</v>
-      </c>
       <c r="E2" t="n">
+        <v>651529.5721298277</v>
+      </c>
+      <c r="F2" t="n">
+        <v>651529.5721298286</v>
+      </c>
+      <c r="G2" t="n">
         <v>651529.5721298284</v>
       </c>
-      <c r="F2" t="n">
-        <v>651529.5721298285</v>
-      </c>
-      <c r="G2" t="n">
-        <v>651529.5721298289</v>
-      </c>
       <c r="H2" t="n">
-        <v>651529.5721298287</v>
+        <v>651529.5721298284</v>
       </c>
       <c r="I2" t="n">
-        <v>651529.5721298279</v>
+        <v>651529.5721298286</v>
       </c>
       <c r="J2" t="n">
         <v>631397.7523692574</v>
       </c>
       <c r="K2" t="n">
-        <v>631397.7523692572</v>
+        <v>631397.7523692573</v>
       </c>
       <c r="L2" t="n">
-        <v>631397.7523692575</v>
+        <v>631397.7523692574</v>
       </c>
       <c r="M2" t="n">
-        <v>631397.7523692575</v>
+        <v>631397.7523692573</v>
       </c>
       <c r="N2" t="n">
-        <v>631397.7523692573</v>
+        <v>631397.7523692574</v>
       </c>
       <c r="O2" t="n">
         <v>631397.7523692575</v>
       </c>
       <c r="P2" t="n">
-        <v>631397.7523692574</v>
+        <v>631397.7523692573</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>130749.1700082319</v>
       </c>
       <c r="C3" t="n">
-        <v>41345.11576204233</v>
+        <v>41345.11576204217</v>
       </c>
       <c r="D3" t="n">
-        <v>1222.435491908768</v>
+        <v>1222.43549190892</v>
       </c>
       <c r="E3" t="n">
         <v>203271.5589872691</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>161262.4011223462</v>
+        <v>161262.4011223461</v>
       </c>
       <c r="K3" t="n">
-        <v>32936.78508933277</v>
+        <v>32936.78508933265</v>
       </c>
       <c r="L3" t="n">
-        <v>995.9998103296092</v>
+        <v>995.9998103297183</v>
       </c>
       <c r="M3" t="n">
         <v>126468.1067646758</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>23599.1533810704</v>
+        <v>23599.15338107043</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>255180.0220455301</v>
       </c>
       <c r="C4" t="n">
-        <v>233053.6734055599</v>
+        <v>233053.6734055601</v>
       </c>
       <c r="D4" t="n">
         <v>232373.2713033891</v>
@@ -26429,10 +26429,10 @@
         <v>175284.6946798805</v>
       </c>
       <c r="F4" t="n">
-        <v>175284.6946798805</v>
+        <v>175284.6946798806</v>
       </c>
       <c r="G4" t="n">
-        <v>175284.6946798805</v>
+        <v>175284.6946798806</v>
       </c>
       <c r="H4" t="n">
         <v>175284.6946798805</v>
@@ -26450,16 +26450,16 @@
         <v>148366.1238023682</v>
       </c>
       <c r="M4" t="n">
-        <v>148366.1238023682</v>
+        <v>148366.1238023683</v>
       </c>
       <c r="N4" t="n">
         <v>148366.1238023682</v>
       </c>
       <c r="O4" t="n">
-        <v>148366.1238023682</v>
+        <v>148366.1238023683</v>
       </c>
       <c r="P4" t="n">
-        <v>148366.1238023682</v>
+        <v>148366.1238023683</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>57348.88900881319</v>
       </c>
       <c r="C5" t="n">
-        <v>65129.79624448907</v>
+        <v>65129.79624448904</v>
       </c>
       <c r="D5" t="n">
         <v>65369.06507849755</v>
@@ -26502,7 +26502,7 @@
         <v>73345.15677686482</v>
       </c>
       <c r="M5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="N5" t="n">
         <v>73345.15677686484</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>208251.4910672529</v>
+        <v>208251.4910672527</v>
       </c>
       <c r="C6" t="n">
-        <v>312000.9867177366</v>
+        <v>312000.9867177369</v>
       </c>
       <c r="D6" t="n">
-        <v>352564.8002560329</v>
+        <v>352564.8002560323</v>
       </c>
       <c r="E6" t="n">
-        <v>204938.6971593291</v>
+        <v>204938.6971593284</v>
       </c>
       <c r="F6" t="n">
         <v>408210.2561465983</v>
       </c>
       <c r="G6" t="n">
-        <v>408210.2561465986</v>
+        <v>408210.2561465981</v>
       </c>
       <c r="H6" t="n">
-        <v>408210.2561465985</v>
+        <v>408210.2561465981</v>
       </c>
       <c r="I6" t="n">
-        <v>408210.2561465976</v>
+        <v>408210.2561465983</v>
       </c>
       <c r="J6" t="n">
-        <v>248424.0706676781</v>
+        <v>248373.7411182767</v>
       </c>
       <c r="K6" t="n">
-        <v>376749.6867006914</v>
+        <v>376699.3571512902</v>
       </c>
       <c r="L6" t="n">
-        <v>408690.4719796948</v>
+        <v>408640.1424302931</v>
       </c>
       <c r="M6" t="n">
-        <v>283218.3650253486</v>
+        <v>283168.0354759469</v>
       </c>
       <c r="N6" t="n">
-        <v>409686.4717900242</v>
+        <v>409636.1422406229</v>
       </c>
       <c r="O6" t="n">
-        <v>386087.3184089541</v>
+        <v>386036.9888595525</v>
       </c>
       <c r="P6" t="n">
-        <v>409686.4717900243</v>
+        <v>409636.1422406227</v>
       </c>
     </row>
   </sheetData>
@@ -26706,28 +26706,28 @@
         <v>64.68340799244811</v>
       </c>
       <c r="I2" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="J2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K2" t="n">
         <v>29.49894172633799</v>
       </c>
       <c r="L2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="3">
@@ -26792,7 +26792,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="C4" t="n">
-        <v>518.1282277054124</v>
+        <v>518.128227705412</v>
       </c>
       <c r="D4" t="n">
         <v>522.0635703700256</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26940,13 +26940,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27014,10 +27014,10 @@
         <v>390.1527797502169</v>
       </c>
       <c r="C4" t="n">
-        <v>127.9754479551956</v>
+        <v>127.9754479551951</v>
       </c>
       <c r="D4" t="n">
-        <v>3.935342664613103</v>
+        <v>3.93534266461359</v>
       </c>
       <c r="E4" t="n">
         <v>507.488269709458</v>
@@ -27038,13 +27038,13 @@
         <v>526.1471608035183</v>
       </c>
       <c r="K4" t="n">
-        <v>127.9754479551956</v>
+        <v>127.9754479551951</v>
       </c>
       <c r="L4" t="n">
-        <v>3.93534266461316</v>
+        <v>3.935342664613591</v>
       </c>
       <c r="M4" t="n">
-        <v>507.4882697094581</v>
+        <v>507.488269709458</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>390.1527797502169</v>
       </c>
       <c r="K4" t="n">
-        <v>127.9754479551956</v>
+        <v>127.9754479551951</v>
       </c>
       <c r="L4" t="n">
-        <v>3.935342664613103</v>
+        <v>3.93534266461359</v>
       </c>
       <c r="M4" t="n">
         <v>507.488269709458</v>
@@ -27384,22 +27384,22 @@
         <v>15.87056502964566</v>
       </c>
       <c r="D2" t="n">
-        <v>53.66851524207834</v>
+        <v>10.26651085765315</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>14.48822151587922</v>
+        <v>303.3500181657369</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -27460,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,22 +27508,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>184.1604481903512</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>174.5627220424961</v>
+        <v>51.88353852249344</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>157.1651648329948</v>
       </c>
       <c r="C4" t="n">
-        <v>145.4815158241593</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
@@ -27557,7 +27557,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,16 +27618,16 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>377.304804670476</v>
       </c>
       <c r="Y5" t="n">
-        <v>355.644667421896</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27706,10 +27706,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>15.27227781283226</v>
       </c>
       <c r="G6" t="n">
-        <v>15.27227781283051</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>130.9513356833402</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -27833,16 +27833,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>208.6070786176241</v>
       </c>
     </row>
     <row r="8">
@@ -27855,10 +27855,10 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>34.15581231526721</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>79.52145554827894</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
@@ -28061,22 +28061,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>82.68617307340648</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>43.66248763732071</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>64.68340799244791</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="T17" t="n">
         <v>64.68340799244811</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>64.68340799244811</v>
+        <v>64.68340799244805</v>
       </c>
       <c r="C20" t="n">
         <v>64.68340799244811</v>
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="C23" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="D23" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="E23" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="F23" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="G23" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="H23" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="I23" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="T23" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="U23" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="V23" t="n">
         <v>64.68340799244822</v>
       </c>
       <c r="W23" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="X23" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="Y23" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="C25" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="D25" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="E25" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="F25" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="G25" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="H25" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="I25" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="J25" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="K25" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="L25" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="M25" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="N25" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="O25" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="P25" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="R25" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="S25" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="T25" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="U25" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="V25" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="W25" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="X25" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
       <c r="Y25" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244811</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="29">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633691</v>
       </c>
       <c r="E38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C41" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D41" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E41" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F41" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G41" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H41" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I41" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T41" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U41" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V41" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W41" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X41" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y41" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C43" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D43" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E43" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F43" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G43" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H43" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I43" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J43" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K43" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L43" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M43" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N43" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O43" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P43" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R43" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S43" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T43" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U43" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V43" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W43" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X43" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C44" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D44" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E44" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F44" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G44" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H44" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I44" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T44" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U44" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V44" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W44" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X44" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y44" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C46" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D46" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E46" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F46" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G46" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H46" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I46" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J46" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K46" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L46" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M46" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N46" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O46" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P46" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R46" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S46" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T46" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U46" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V46" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W46" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X46" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
   </sheetData>
@@ -34707,7 +34707,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>142.4174431947571</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34716,7 +34716,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>142.4174431947571</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>21.01078391790188</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>390.1527797502169</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>518.1282277054124</v>
+        <v>518.128227705412</v>
       </c>
       <c r="L5" t="n">
-        <v>518.1282277054124</v>
+        <v>518.128227705412</v>
       </c>
       <c r="M5" t="n">
-        <v>518.1282277054124</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>518.128227705412</v>
       </c>
       <c r="P5" t="n">
-        <v>172.7886964897474</v>
+        <v>172.7886964897469</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>113.957406336897</v>
       </c>
       <c r="L6" t="n">
-        <v>495.0430396993061</v>
+        <v>518.128227705412</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>518.128227705412</v>
       </c>
       <c r="N6" t="n">
-        <v>518.1282277054124</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>518.128227705412</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>460.0037840019794</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>506.6900639491208</v>
+      </c>
+      <c r="P9" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M9" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N9" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>10.70163254908682</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35415,10 +35415,10 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>222.2727997705669</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>784.1601929209636</v>
+        <v>570.0824485435395</v>
       </c>
       <c r="N11" t="n">
         <v>760.7889056955737</v>
@@ -35430,10 +35430,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>504.6010349596354</v>
+        <v>461.3739449367924</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35664,13 +35664,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>361.3902794697644</v>
+        <v>320.4239706924262</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>120.2318671808123</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>108.5673193121739</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,10 +35886,10 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>5.112653919290765</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L17" t="n">
-        <v>719.7892927396343</v>
+        <v>181.3064909932286</v>
       </c>
       <c r="M17" t="n">
         <v>784.1601929209636</v>
@@ -35965,28 +35965,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>120.947516057361</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>656.1344071212704</v>
       </c>
       <c r="P18" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>543.5954556656965</v>
+        <v>5.112653919290765</v>
       </c>
       <c r="L20" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M20" t="n">
-        <v>245.6773911745577</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N20" t="n">
         <v>760.7889056955737</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
         <v>667.7658302215033</v>
@@ -36211,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>688.3272054397146</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>360.9878040976426</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>5.112653919290765</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L23" t="n">
         <v>719.7892927396343</v>
@@ -36369,7 +36369,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N23" t="n">
-        <v>760.7889056955737</v>
+        <v>222.306103949168</v>
       </c>
       <c r="O23" t="n">
         <v>650.1321781990958</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367924</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36451,13 +36451,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>198.0587452094835</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>29.85810036629282</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36688,16 +36688,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>371.6049244215989</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P27" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36773,7 +36773,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36928,13 +36928,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>390.8459044639358</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37086,7 +37086,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P32" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q32" t="n">
         <v>324.4050573689818</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>504.6010349596356</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37247,7 +37247,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L35" t="n">
         <v>719.7892927396343</v>
@@ -37390,13 +37390,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>120.2318671808126</v>
+        <v>688.3272054397147</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>711.0677682281761</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K37" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L37" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M37" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N37" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O37" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P37" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M38" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N38" t="n">
         <v>760.7889056955737</v>
@@ -37563,7 +37563,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
         <v>40.9663087773382</v>
@@ -37627,7 +37627,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37636,10 +37636,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>360.9878040976435</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
         <v>353.3782471555388</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.72373910533855</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K40" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L40" t="n">
         <v>292.0212652415507</v>
@@ -37721,7 +37721,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37788,7 +37788,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N41" t="n">
         <v>760.7889056955737</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>656.1344071212706</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>43.72373910533855</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K43" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L43" t="n">
         <v>292.0212652415507</v>
@@ -37958,7 +37958,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q43" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>108.567319312174</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>29.85810036629282</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>43.72373910533855</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K46" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L46" t="n">
         <v>292.0212652415507</v>
@@ -38195,7 +38195,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q46" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
